--- a/database/industries/shoyande/gharn/cost/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0B915-D052-47DC-A534-F85700BB8324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,7 +420,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -431,7 +432,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -478,6 +479,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -513,6 +531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,17 +699,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -684,7 +719,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +731,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -708,7 +743,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -718,7 +753,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -730,7 +765,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -742,7 +777,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -752,7 +787,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -774,7 +809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -784,95 +819,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>4913829</v>
+        <v>3901465</v>
       </c>
       <c r="F10" s="9">
-        <v>3901465</v>
+        <v>4606758</v>
       </c>
       <c r="G10" s="9">
-        <v>4606758</v>
+        <v>4137548</v>
       </c>
       <c r="H10" s="9">
-        <v>4137548</v>
+        <v>6084512</v>
       </c>
       <c r="I10" s="9">
-        <v>6068169</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6548651</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>168825</v>
+        <v>147062</v>
       </c>
       <c r="F11" s="11">
-        <v>147062</v>
+        <v>133364</v>
       </c>
       <c r="G11" s="11">
-        <v>133364</v>
+        <v>204183</v>
       </c>
       <c r="H11" s="11">
-        <v>204183</v>
+        <v>209475</v>
       </c>
       <c r="I11" s="11">
-        <v>214797</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215160</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>392223</v>
+        <v>370462</v>
       </c>
       <c r="F12" s="9">
-        <v>370462</v>
+        <v>449945</v>
       </c>
       <c r="G12" s="9">
-        <v>449945</v>
+        <v>440428</v>
       </c>
       <c r="H12" s="9">
-        <v>440428</v>
+        <v>474534</v>
       </c>
       <c r="I12" s="9">
-        <v>453487</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>5474877</v>
+        <v>4418989</v>
       </c>
       <c r="F13" s="13">
-        <v>4418989</v>
+        <v>5190067</v>
       </c>
       <c r="G13" s="13">
-        <v>5190067</v>
+        <v>4782159</v>
       </c>
       <c r="H13" s="13">
-        <v>4782159</v>
+        <v>6768521</v>
       </c>
       <c r="I13" s="13">
-        <v>6736453</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7202811</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -894,51 +929,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>5474877</v>
+        <v>4418989</v>
       </c>
       <c r="F15" s="13">
-        <v>4418989</v>
+        <v>5190067</v>
       </c>
       <c r="G15" s="13">
-        <v>5190067</v>
+        <v>4782159</v>
       </c>
       <c r="H15" s="13">
-        <v>4782159</v>
+        <v>6768521</v>
       </c>
       <c r="I15" s="13">
-        <v>6736453</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7202811</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>2808</v>
+        <v>10303</v>
       </c>
       <c r="F16" s="9">
-        <v>10303</v>
+        <v>8537</v>
       </c>
       <c r="G16" s="9">
-        <v>8537</v>
+        <v>-60519</v>
       </c>
       <c r="H16" s="9">
-        <v>-60519</v>
+        <v>-16393</v>
       </c>
       <c r="I16" s="9">
-        <v>-15461</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-105008</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -960,29 +995,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>5477685</v>
+        <v>4429292</v>
       </c>
       <c r="F18" s="15">
-        <v>4429292</v>
+        <v>5198604</v>
       </c>
       <c r="G18" s="15">
-        <v>5198604</v>
+        <v>4721640</v>
       </c>
       <c r="H18" s="15">
-        <v>4721640</v>
+        <v>6752128</v>
       </c>
       <c r="I18" s="15">
-        <v>6720992</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7097803</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -992,63 +1027,63 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>180850</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>509172</v>
       </c>
       <c r="H19" s="11">
-        <v>509172</v>
+        <v>944085</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>964559</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-340128</v>
+        <v>-180850</v>
       </c>
       <c r="F20" s="9">
-        <v>-180850</v>
+        <v>-509172</v>
       </c>
       <c r="G20" s="9">
-        <v>451298</v>
+        <v>-944085</v>
       </c>
       <c r="H20" s="9">
-        <v>-944085</v>
+        <v>-964559</v>
       </c>
       <c r="I20" s="9">
-        <v>-38779</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1417650</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>5137557</v>
+        <v>4248442</v>
       </c>
       <c r="F21" s="13">
-        <v>4248442</v>
+        <v>5649902</v>
       </c>
       <c r="G21" s="13">
-        <v>5649902</v>
+        <v>4286727</v>
       </c>
       <c r="H21" s="13">
-        <v>4286727</v>
+        <v>6731654</v>
       </c>
       <c r="I21" s="13">
-        <v>6682213</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6644712</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1070,29 +1105,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>5137557</v>
+        <v>4248442</v>
       </c>
       <c r="F23" s="13">
-        <v>4248442</v>
+        <v>5649902</v>
       </c>
       <c r="G23" s="13">
-        <v>5649902</v>
+        <v>4286727</v>
       </c>
       <c r="H23" s="13">
-        <v>4286727</v>
+        <v>6731654</v>
       </c>
       <c r="I23" s="13">
-        <v>6682213</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6644712</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1102,7 +1137,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1112,7 +1147,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1122,7 +1157,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1154,7 +1189,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1162,23 +1197,23 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29" s="9">
         <v>117469002</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
+      <c r="F29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="9">
+        <v>89444963</v>
       </c>
       <c r="H29" s="9">
-        <v>89444963</v>
+        <v>84416103</v>
       </c>
       <c r="I29" s="9">
-        <v>84416103</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79771625</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1187,22 +1222,22 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>145748899</v>
-      </c>
-      <c r="F30" s="11">
         <v>18389172</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>26</v>
+      <c r="F30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="11">
+        <v>16193238</v>
       </c>
       <c r="H30" s="11">
-        <v>16193238</v>
+        <v>12149943</v>
       </c>
       <c r="I30" s="11">
-        <v>12149943</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11374625</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1250,7 +1285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1259,22 +1294,22 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>3528</v>
-      </c>
-      <c r="F33" s="9">
         <v>2729026</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>26</v>
+      <c r="F33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1544060</v>
       </c>
       <c r="H33" s="9">
-        <v>1544060</v>
+        <v>1241383</v>
       </c>
       <c r="I33" s="9">
-        <v>1241383</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1230750</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -1282,23 +1317,23 @@
         <v>32</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="E34" s="11">
         <v>3363584</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>26</v>
+      <c r="F34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="11">
+        <v>4297175</v>
       </c>
       <c r="H34" s="11">
-        <v>4297175</v>
+        <v>4530788</v>
       </c>
       <c r="I34" s="11">
-        <v>4530788</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4118318</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1322,29 +1357,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>145752427</v>
+        <v>141950784</v>
       </c>
       <c r="F36" s="13">
-        <v>141950784</v>
+        <v>0</v>
       </c>
       <c r="G36" s="13">
-        <v>0</v>
+        <v>111479436</v>
       </c>
       <c r="H36" s="13">
-        <v>111479436</v>
+        <v>102338217</v>
       </c>
       <c r="I36" s="13">
-        <v>102338217</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>96495318</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1354,7 +1389,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1364,7 +1399,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1374,7 +1409,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1406,7 +1441,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1415,22 +1450,22 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>161765944</v>
+        <v>45571361</v>
       </c>
       <c r="F42" s="9">
-        <v>45571361</v>
+        <v>120847903</v>
       </c>
       <c r="G42" s="9">
-        <v>120847903</v>
+        <v>78464644</v>
       </c>
       <c r="H42" s="9">
-        <v>78464644</v>
+        <v>114520834</v>
       </c>
       <c r="I42" s="9">
-        <v>114520834</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>145674241</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
@@ -1439,22 +1474,22 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>-60663609</v>
+        <v>3499109</v>
       </c>
       <c r="F43" s="11">
-        <v>3499109</v>
+        <v>4677294</v>
       </c>
       <c r="G43" s="11">
-        <v>4677294</v>
+        <v>70362</v>
       </c>
       <c r="H43" s="11">
-        <v>70362</v>
+        <v>2522783</v>
       </c>
       <c r="I43" s="11">
-        <v>2522783</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3805763</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -1478,7 +1513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
@@ -1502,7 +1537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
@@ -1511,22 +1546,22 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>846043</v>
+        <v>66664</v>
       </c>
       <c r="F46" s="9">
-        <v>66664</v>
+        <v>298607</v>
       </c>
       <c r="G46" s="9">
-        <v>298607</v>
+        <v>249694</v>
       </c>
       <c r="H46" s="9">
-        <v>249694</v>
+        <v>981960</v>
       </c>
       <c r="I46" s="9">
-        <v>981960</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1904281</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>33</v>
       </c>
@@ -1535,22 +1570,22 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>18957897</v>
+        <v>10940603</v>
       </c>
       <c r="F47" s="11">
-        <v>10940603</v>
+        <v>12572887</v>
       </c>
       <c r="G47" s="11">
-        <v>12572887</v>
+        <v>8601118</v>
       </c>
       <c r="H47" s="11">
-        <v>8601118</v>
+        <v>14682761</v>
       </c>
       <c r="I47" s="11">
-        <v>14682761</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17997952</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
@@ -1574,29 +1609,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>120906275</v>
+        <v>60077737</v>
       </c>
       <c r="F49" s="13">
-        <v>60077737</v>
+        <v>138396691</v>
       </c>
       <c r="G49" s="13">
-        <v>138396691</v>
+        <v>87385818</v>
       </c>
       <c r="H49" s="13">
-        <v>87385818</v>
+        <v>132708338</v>
       </c>
       <c r="I49" s="13">
-        <v>132708338</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>169382237</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1606,7 +1641,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1616,7 +1651,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1626,7 +1661,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>36</v>
       </c>
@@ -1648,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1658,7 +1693,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1667,22 +1702,22 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>179182180</v>
+        <v>63912307</v>
       </c>
       <c r="F55" s="9">
-        <v>63912307</v>
+        <v>130530996</v>
       </c>
       <c r="G55" s="9">
-        <v>130530996</v>
+        <v>83493504</v>
       </c>
       <c r="H55" s="9">
-        <v>83493504</v>
+        <v>119165312</v>
       </c>
       <c r="I55" s="9">
-        <v>119165312</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128869353</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
@@ -1691,22 +1726,22 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>-53831766</v>
+        <v>5276406</v>
       </c>
       <c r="F56" s="11">
-        <v>5276406</v>
+        <v>5095931</v>
       </c>
       <c r="G56" s="11">
-        <v>5095931</v>
+        <v>4113657</v>
       </c>
       <c r="H56" s="11">
-        <v>4113657</v>
+        <v>3298101</v>
       </c>
       <c r="I56" s="11">
-        <v>3298101</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3256092</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>28</v>
       </c>
@@ -1730,7 +1765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>29</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>31</v>
       </c>
@@ -1763,22 +1798,22 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>1615373</v>
+        <v>616902</v>
       </c>
       <c r="F59" s="9">
-        <v>616902</v>
+        <v>933335</v>
       </c>
       <c r="G59" s="9">
-        <v>933335</v>
+        <v>552371</v>
       </c>
       <c r="H59" s="9">
-        <v>552371</v>
+        <v>992593</v>
       </c>
       <c r="I59" s="9">
-        <v>992593</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1025118</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>33</v>
       </c>
@@ -1787,22 +1822,22 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>19398088</v>
+        <v>10106029</v>
       </c>
       <c r="F60" s="11">
-        <v>10106029</v>
+        <v>12473870</v>
       </c>
       <c r="G60" s="11">
-        <v>12473870</v>
+        <v>8367505</v>
       </c>
       <c r="H60" s="11">
-        <v>8367505</v>
+        <v>15095231</v>
       </c>
       <c r="I60" s="11">
-        <v>15095231</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14974882</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
@@ -1826,29 +1861,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>146363875</v>
+        <v>79911644</v>
       </c>
       <c r="F62" s="13">
-        <v>79911644</v>
+        <v>149034132</v>
       </c>
       <c r="G62" s="13">
-        <v>149034132</v>
+        <v>96527037</v>
       </c>
       <c r="H62" s="13">
-        <v>96527037</v>
+        <v>138551237</v>
       </c>
       <c r="I62" s="13">
-        <v>138551237</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>148125445</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1858,7 +1893,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1868,7 +1903,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1878,7 +1913,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>37</v>
       </c>
@@ -1900,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1910,7 +1945,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1919,22 +1954,22 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <v>117469002</v>
+        <v>99128056</v>
       </c>
       <c r="F68" s="9">
-        <v>99128056</v>
+        <v>89444963</v>
       </c>
       <c r="G68" s="9">
-        <v>89444963</v>
+        <v>84416103</v>
       </c>
       <c r="H68" s="9">
-        <v>84416103</v>
+        <v>79771625</v>
       </c>
       <c r="I68" s="9">
-        <v>79771625</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>96576513</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
@@ -1943,22 +1978,22 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>18389172</v>
+        <v>16611875</v>
       </c>
       <c r="F69" s="11">
-        <v>16611875</v>
+        <v>16193238</v>
       </c>
       <c r="G69" s="11">
-        <v>16193238</v>
+        <v>12149943</v>
       </c>
       <c r="H69" s="11">
-        <v>12149943</v>
+        <v>11374625</v>
       </c>
       <c r="I69" s="11">
-        <v>11374625</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11924296</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>28</v>
       </c>
@@ -1982,7 +2017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>29</v>
       </c>
@@ -2006,7 +2041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>31</v>
       </c>
@@ -2015,22 +2050,22 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>2729026</v>
+        <v>2178788</v>
       </c>
       <c r="F72" s="9">
-        <v>2178788</v>
+        <v>1544060</v>
       </c>
       <c r="G72" s="9">
-        <v>1544060</v>
+        <v>1241383</v>
       </c>
       <c r="H72" s="9">
-        <v>1241383</v>
+        <v>1230750</v>
       </c>
       <c r="I72" s="9">
-        <v>1230750</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2109913</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>33</v>
       </c>
@@ -2039,22 +2074,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>3363584</v>
+        <v>4198158</v>
       </c>
       <c r="F73" s="11">
-        <v>4198158</v>
+        <v>4297175</v>
       </c>
       <c r="G73" s="11">
-        <v>4297175</v>
+        <v>4530788</v>
       </c>
       <c r="H73" s="11">
-        <v>4530788</v>
+        <v>4118318</v>
       </c>
       <c r="I73" s="11">
-        <v>4118318</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7141388</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>34</v>
       </c>
@@ -2078,29 +2113,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>141950784</v>
+        <v>122116877</v>
       </c>
       <c r="F75" s="13">
-        <v>122116877</v>
+        <v>111479436</v>
       </c>
       <c r="G75" s="13">
-        <v>111479436</v>
+        <v>102338217</v>
       </c>
       <c r="H75" s="13">
-        <v>102338217</v>
+        <v>96495318</v>
       </c>
       <c r="I75" s="13">
-        <v>96495318</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117752110</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2110,7 +2145,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2120,7 +2155,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2130,7 +2165,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2162,7 +2197,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2170,23 +2205,23 @@
         <v>39</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F81" s="9">
+      <c r="E81" s="9">
         <v>800899</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>26</v>
+      <c r="F81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="9">
+        <v>675721</v>
       </c>
       <c r="H81" s="9">
-        <v>675721</v>
+        <v>766886</v>
       </c>
       <c r="I81" s="9">
-        <v>766886</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>747025</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>27</v>
       </c>
@@ -2195,22 +2230,22 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>890965</v>
-      </c>
-      <c r="F82" s="11">
         <v>490845</v>
       </c>
-      <c r="G82" s="11" t="s">
-        <v>26</v>
+      <c r="F82" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="11">
+        <v>373617</v>
       </c>
       <c r="H82" s="11">
-        <v>373617</v>
+        <v>353618</v>
       </c>
       <c r="I82" s="11">
-        <v>353618</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>258638</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>28</v>
       </c>
@@ -2234,7 +2269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>29</v>
       </c>
@@ -2258,7 +2293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>31</v>
       </c>
@@ -2267,22 +2302,22 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>2409229</v>
-      </c>
-      <c r="F85" s="9">
         <v>2078633</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>26</v>
+      <c r="F85" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1650374</v>
       </c>
       <c r="H85" s="9">
-        <v>1650374</v>
+        <v>1404795</v>
       </c>
       <c r="I85" s="9">
-        <v>1404795</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1432135</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>33</v>
       </c>
@@ -2290,23 +2325,23 @@
         <v>39</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="11">
+      <c r="E86" s="11">
         <v>627953</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>26</v>
+      <c r="F86" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="11">
+        <v>917125</v>
       </c>
       <c r="H86" s="11">
-        <v>917125</v>
+        <v>830582</v>
       </c>
       <c r="I86" s="11">
-        <v>830582</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>876374</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>34</v>
       </c>
@@ -2330,29 +2365,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>3300194</v>
+        <v>3998330</v>
       </c>
       <c r="F88" s="13">
-        <v>3998330</v>
+        <v>0</v>
       </c>
       <c r="G88" s="13">
-        <v>0</v>
+        <v>3616837</v>
       </c>
       <c r="H88" s="13">
-        <v>3616837</v>
+        <v>3355881</v>
       </c>
       <c r="I88" s="13">
-        <v>3355881</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3314172</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2362,7 +2397,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2372,7 +2407,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2382,7 +2417,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>40</v>
       </c>
@@ -2404,7 +2439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2414,7 +2449,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
@@ -2423,22 +2458,22 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
-        <v>2539266</v>
+        <v>1209961</v>
       </c>
       <c r="F94" s="9">
-        <v>1209961</v>
+        <v>1602041</v>
       </c>
       <c r="G94" s="9">
-        <v>1602041</v>
+        <v>1497986</v>
       </c>
       <c r="H94" s="9">
-        <v>1497986</v>
+        <v>2161296</v>
       </c>
       <c r="I94" s="9">
-        <v>2169218</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2411169</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>27</v>
       </c>
@@ -2447,22 +2482,22 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>-597962</v>
+        <v>22156</v>
       </c>
       <c r="F95" s="11">
-        <v>22156</v>
+        <v>91660</v>
       </c>
       <c r="G95" s="11">
-        <v>91660</v>
+        <v>74130</v>
       </c>
       <c r="H95" s="11">
-        <v>74130</v>
+        <v>661</v>
       </c>
       <c r="I95" s="11">
-        <v>-1769</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81136</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>28</v>
       </c>
@@ -2486,7 +2521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>29</v>
       </c>
@@ -2510,7 +2545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>31</v>
       </c>
@@ -2519,22 +2554,22 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>432465</v>
+        <v>377246</v>
       </c>
       <c r="F98" s="9">
-        <v>377246</v>
+        <v>450588</v>
       </c>
       <c r="G98" s="9">
-        <v>450588</v>
+        <v>315154</v>
       </c>
       <c r="H98" s="9">
-        <v>315154</v>
+        <v>918418</v>
       </c>
       <c r="I98" s="9">
-        <v>911173</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1549964</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>33</v>
       </c>
@@ -2543,22 +2578,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>3337689</v>
+        <v>2095597</v>
       </c>
       <c r="F99" s="11">
-        <v>2095597</v>
+        <v>2242723</v>
       </c>
       <c r="G99" s="11">
-        <v>2242723</v>
+        <v>1989322</v>
       </c>
       <c r="H99" s="11">
-        <v>1989322</v>
+        <v>2962428</v>
       </c>
       <c r="I99" s="11">
-        <v>2936033</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3025460</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>34</v>
       </c>
@@ -2582,29 +2617,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>5711458</v>
+        <v>3704960</v>
       </c>
       <c r="F101" s="13">
-        <v>3704960</v>
+        <v>4387012</v>
       </c>
       <c r="G101" s="13">
-        <v>4387012</v>
+        <v>3876592</v>
       </c>
       <c r="H101" s="13">
-        <v>3876592</v>
+        <v>6042803</v>
       </c>
       <c r="I101" s="13">
-        <v>6014655</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7067729</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2614,7 +2649,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2624,7 +2659,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2634,7 +2669,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>41</v>
       </c>
@@ -2656,7 +2691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2666,7 +2701,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2675,22 +2710,22 @@
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>2482279</v>
+        <v>1291747</v>
       </c>
       <c r="F107" s="9">
-        <v>1291747</v>
+        <v>1646481</v>
       </c>
       <c r="G107" s="9">
-        <v>1646481</v>
+        <v>1406821</v>
       </c>
       <c r="H107" s="9">
-        <v>1406821</v>
+        <v>2181157</v>
       </c>
       <c r="I107" s="9">
-        <v>2181356</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2267477</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2699,22 +2734,22 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>-601507</v>
+        <v>112064</v>
       </c>
       <c r="F108" s="11">
-        <v>112064</v>
+        <v>118946</v>
       </c>
       <c r="G108" s="11">
-        <v>118946</v>
+        <v>94129</v>
       </c>
       <c r="H108" s="11">
-        <v>94129</v>
+        <v>95641</v>
       </c>
       <c r="I108" s="11">
-        <v>95559</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103296</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>28</v>
       </c>
@@ -2738,7 +2773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>29</v>
       </c>
@@ -2762,7 +2797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>31</v>
       </c>
@@ -2771,22 +2806,22 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>768708</v>
+        <v>538819</v>
       </c>
       <c r="F111" s="9">
-        <v>538819</v>
+        <v>711627</v>
       </c>
       <c r="G111" s="9">
-        <v>711627</v>
+        <v>560733</v>
       </c>
       <c r="H111" s="9">
-        <v>560733</v>
+        <v>891078</v>
       </c>
       <c r="I111" s="9">
-        <v>876555</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1292079</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>33</v>
       </c>
@@ -2795,22 +2830,22 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>3320991</v>
+        <v>1958835</v>
       </c>
       <c r="F112" s="11">
-        <v>1958835</v>
+        <v>2129704</v>
       </c>
       <c r="G112" s="11">
-        <v>2129704</v>
+        <v>2075865</v>
       </c>
       <c r="H112" s="11">
-        <v>2075865</v>
+        <v>2916636</v>
       </c>
       <c r="I112" s="11">
-        <v>2914699</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2885799</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>34</v>
       </c>
@@ -2834,29 +2869,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>5970471</v>
+        <v>3901465</v>
       </c>
       <c r="F114" s="13">
-        <v>3901465</v>
+        <v>4606758</v>
       </c>
       <c r="G114" s="13">
-        <v>4606758</v>
+        <v>4137548</v>
       </c>
       <c r="H114" s="13">
-        <v>4137548</v>
+        <v>6084512</v>
       </c>
       <c r="I114" s="13">
-        <v>6068169</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6548651</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2866,7 +2901,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2876,7 +2911,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2886,7 +2921,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>42</v>
       </c>
@@ -2908,7 +2943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2918,7 +2953,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
@@ -2927,22 +2962,22 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
-        <v>801948</v>
+        <v>720162</v>
       </c>
       <c r="F120" s="9">
-        <v>720162</v>
+        <v>675722</v>
       </c>
       <c r="G120" s="9">
-        <v>675722</v>
+        <v>766886</v>
       </c>
       <c r="H120" s="9">
-        <v>766886</v>
+        <v>747025</v>
       </c>
       <c r="I120" s="9">
-        <v>754748</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>890717</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>27</v>
       </c>
@@ -2951,22 +2986,22 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>490811</v>
+        <v>400903</v>
       </c>
       <c r="F121" s="11">
-        <v>400903</v>
+        <v>373617</v>
       </c>
       <c r="G121" s="11">
-        <v>373617</v>
+        <v>353618</v>
       </c>
       <c r="H121" s="11">
-        <v>353618</v>
+        <v>258638</v>
       </c>
       <c r="I121" s="11">
-        <v>256290</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>236478</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>28</v>
       </c>
@@ -2990,7 +3025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>29</v>
       </c>
@@ -3014,7 +3049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>31</v>
       </c>
@@ -3023,22 +3058,22 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
-        <v>2072986</v>
+        <v>1911413</v>
       </c>
       <c r="F124" s="9">
-        <v>1911413</v>
+        <v>1650374</v>
       </c>
       <c r="G124" s="9">
-        <v>1650374</v>
+        <v>1404795</v>
       </c>
       <c r="H124" s="9">
-        <v>1404795</v>
+        <v>1432135</v>
       </c>
       <c r="I124" s="9">
-        <v>1439413</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1690020</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>33</v>
       </c>
@@ -3047,22 +3082,22 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>667344</v>
+        <v>804106</v>
       </c>
       <c r="F125" s="11">
-        <v>804106</v>
+        <v>917125</v>
       </c>
       <c r="G125" s="11">
-        <v>917125</v>
+        <v>830582</v>
       </c>
       <c r="H125" s="11">
-        <v>830582</v>
+        <v>876374</v>
       </c>
       <c r="I125" s="11">
-        <v>851916</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1016035</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>34</v>
       </c>
@@ -3086,29 +3121,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>4033089</v>
+        <v>3836584</v>
       </c>
       <c r="F127" s="13">
-        <v>3836584</v>
+        <v>3616838</v>
       </c>
       <c r="G127" s="13">
-        <v>3616838</v>
+        <v>3355881</v>
       </c>
       <c r="H127" s="13">
-        <v>3355881</v>
+        <v>3314172</v>
       </c>
       <c r="I127" s="13">
-        <v>3302367</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3833250</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3118,7 +3153,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3128,7 +3163,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3138,7 +3173,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>43</v>
       </c>
@@ -3160,7 +3195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3170,7 +3205,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -3178,23 +3213,23 @@
         <v>44</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
-        <v>26</v>
+      <c r="E133" s="9">
+        <v>6827</v>
       </c>
       <c r="F133" s="9">
-        <v>6827</v>
+        <v>7265</v>
       </c>
       <c r="G133" s="9">
-        <v>7265</v>
+        <v>7555</v>
       </c>
       <c r="H133" s="9">
-        <v>7555</v>
+        <v>9085</v>
       </c>
       <c r="I133" s="9">
-        <v>9085</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9365</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>27</v>
       </c>
@@ -3203,22 +3238,22 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>6113</v>
+        <v>26690</v>
       </c>
       <c r="F134" s="11">
-        <v>26690</v>
+        <v>24134</v>
       </c>
       <c r="G134" s="11">
-        <v>24134</v>
+        <v>23072</v>
       </c>
       <c r="H134" s="11">
-        <v>23072</v>
+        <v>29105</v>
       </c>
       <c r="I134" s="11">
-        <v>29105</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22738</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>28</v>
       </c>
@@ -3242,7 +3277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>29</v>
       </c>
@@ -3266,7 +3301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>31</v>
       </c>
@@ -3275,22 +3310,22 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>682888039</v>
+        <v>759607</v>
       </c>
       <c r="F137" s="9">
-        <v>759607</v>
+        <v>877283</v>
       </c>
       <c r="G137" s="9">
-        <v>877283</v>
+        <v>1068854</v>
       </c>
       <c r="H137" s="9">
-        <v>1068854</v>
+        <v>1131637</v>
       </c>
       <c r="I137" s="9">
-        <v>1131637</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1163628</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>33</v>
       </c>
@@ -3298,23 +3333,23 @@
         <v>46</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>26</v>
+      <c r="E138" s="11">
+        <v>198403</v>
       </c>
       <c r="F138" s="11">
-        <v>198403</v>
+        <v>191538</v>
       </c>
       <c r="G138" s="11">
-        <v>191538</v>
+        <v>213425</v>
       </c>
       <c r="H138" s="11">
-        <v>213425</v>
+        <v>183320</v>
       </c>
       <c r="I138" s="11">
-        <v>183320</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212799</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3324,7 +3359,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3334,7 +3369,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3344,7 +3379,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>47</v>
       </c>
@@ -3366,7 +3401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3376,7 +3411,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>24</v>
       </c>
@@ -3385,22 +3420,22 @@
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9">
-        <v>15697</v>
+        <v>26551</v>
       </c>
       <c r="F144" s="9">
-        <v>26551</v>
+        <v>13257</v>
       </c>
       <c r="G144" s="9">
-        <v>13257</v>
+        <v>19091</v>
       </c>
       <c r="H144" s="9">
-        <v>19091</v>
+        <v>18873</v>
       </c>
       <c r="I144" s="9">
-        <v>18942</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16552</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>27</v>
       </c>
@@ -3409,22 +3444,22 @@
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11">
-        <v>9857</v>
+        <v>6332</v>
       </c>
       <c r="F145" s="11">
-        <v>6332</v>
+        <v>19597</v>
       </c>
       <c r="G145" s="11">
-        <v>19597</v>
+        <v>1053552</v>
       </c>
       <c r="H145" s="11">
-        <v>1053552</v>
+        <v>262</v>
       </c>
       <c r="I145" s="11">
-        <v>-701</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21319</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>28</v>
       </c>
@@ -3448,7 +3483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>29</v>
       </c>
@@ -3472,7 +3507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>31</v>
       </c>
@@ -3481,22 +3516,22 @@
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
-        <v>511162</v>
+        <v>5658916</v>
       </c>
       <c r="F148" s="9">
-        <v>5658916</v>
+        <v>1508967</v>
       </c>
       <c r="G148" s="9">
-        <v>1508967</v>
+        <v>1262161</v>
       </c>
       <c r="H148" s="9">
-        <v>1262161</v>
+        <v>935291</v>
       </c>
       <c r="I148" s="9">
-        <v>927913</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>813937</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>33</v>
       </c>
@@ -3505,22 +3540,22 @@
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
-        <v>176058</v>
+        <v>191543</v>
       </c>
       <c r="F149" s="11">
-        <v>191543</v>
+        <v>178378</v>
       </c>
       <c r="G149" s="11">
-        <v>178378</v>
+        <v>231286</v>
       </c>
       <c r="H149" s="11">
-        <v>231286</v>
+        <v>201762</v>
       </c>
       <c r="I149" s="11">
-        <v>199965</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>168100</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>34</v>
       </c>
@@ -3544,7 +3579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3554,7 +3589,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3564,7 +3599,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3574,7 +3609,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>48</v>
       </c>
@@ -3596,7 +3631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3606,7 +3641,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>24</v>
       </c>
@@ -3615,22 +3650,22 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>13853</v>
+        <v>20211</v>
       </c>
       <c r="F156" s="9">
-        <v>20211</v>
+        <v>12614</v>
       </c>
       <c r="G156" s="9">
-        <v>12614</v>
+        <v>16849</v>
       </c>
       <c r="H156" s="9">
-        <v>16849</v>
+        <v>18304</v>
       </c>
       <c r="I156" s="9">
-        <v>18305</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17595</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>27</v>
       </c>
@@ -3639,22 +3674,22 @@
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
-        <v>11174</v>
+        <v>21239</v>
       </c>
       <c r="F157" s="11">
-        <v>21239</v>
+        <v>23341</v>
       </c>
       <c r="G157" s="11">
-        <v>23341</v>
+        <v>22882</v>
       </c>
       <c r="H157" s="11">
-        <v>22882</v>
+        <v>28999</v>
       </c>
       <c r="I157" s="11">
-        <v>28974</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31724</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>28</v>
       </c>
@@ -3678,7 +3713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>29</v>
       </c>
@@ -3702,7 +3737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>31</v>
       </c>
@@ -3711,22 +3746,22 @@
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
-        <v>475870</v>
+        <v>873427</v>
       </c>
       <c r="F160" s="9">
-        <v>873427</v>
+        <v>762456</v>
       </c>
       <c r="G160" s="9">
-        <v>762456</v>
+        <v>1015138</v>
       </c>
       <c r="H160" s="9">
-        <v>1015138</v>
+        <v>897727</v>
       </c>
       <c r="I160" s="9">
-        <v>883096</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1260420</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>33</v>
       </c>
@@ -3735,22 +3770,22 @@
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="11">
-        <v>171202</v>
+        <v>193828</v>
       </c>
       <c r="F161" s="11">
-        <v>193828</v>
+        <v>170733</v>
       </c>
       <c r="G161" s="11">
-        <v>170733</v>
+        <v>248087</v>
       </c>
       <c r="H161" s="11">
-        <v>248087</v>
+        <v>193216</v>
       </c>
       <c r="I161" s="11">
-        <v>193087</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>192709</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>34</v>
       </c>
@@ -3774,7 +3809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3784,7 +3819,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3794,7 +3829,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3804,7 +3839,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
         <v>49</v>
       </c>
@@ -3826,7 +3861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3836,7 +3871,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>24</v>
       </c>
@@ -3845,22 +3880,22 @@
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9">
-        <v>6827</v>
+        <v>7265</v>
       </c>
       <c r="F168" s="9">
-        <v>7265</v>
+        <v>7555</v>
       </c>
       <c r="G168" s="9">
-        <v>7555</v>
+        <v>9085</v>
       </c>
       <c r="H168" s="9">
-        <v>9085</v>
+        <v>9365</v>
       </c>
       <c r="I168" s="9">
-        <v>9461</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9223</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>27</v>
       </c>
@@ -3869,22 +3904,22 @@
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11">
-        <v>26690</v>
+        <v>24134</v>
       </c>
       <c r="F169" s="11">
-        <v>24134</v>
+        <v>23072</v>
       </c>
       <c r="G169" s="11">
-        <v>23072</v>
+        <v>29105</v>
       </c>
       <c r="H169" s="11">
-        <v>29105</v>
+        <v>22738</v>
       </c>
       <c r="I169" s="11">
-        <v>22532</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19832</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>28</v>
       </c>
@@ -3908,7 +3943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>29</v>
       </c>
@@ -3932,7 +3967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>31</v>
       </c>
@@ -3941,22 +3976,22 @@
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9">
-        <v>759607</v>
+        <v>877283</v>
       </c>
       <c r="F172" s="9">
-        <v>877283</v>
+        <v>1068854</v>
       </c>
       <c r="G172" s="9">
-        <v>1068854</v>
+        <v>1131637</v>
       </c>
       <c r="H172" s="9">
-        <v>1131637</v>
+        <v>1163628</v>
       </c>
       <c r="I172" s="9">
-        <v>1169541</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>800990</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>33</v>
       </c>
@@ -3965,22 +4000,22 @@
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11">
-        <v>198403</v>
+        <v>191538</v>
       </c>
       <c r="F173" s="11">
-        <v>191538</v>
+        <v>213425</v>
       </c>
       <c r="G173" s="11">
-        <v>213425</v>
+        <v>183320</v>
       </c>
       <c r="H173" s="11">
-        <v>183320</v>
+        <v>212799</v>
       </c>
       <c r="I173" s="11">
-        <v>206860</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>142274</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3990,7 +4025,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4000,7 +4035,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4010,7 +4045,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>50</v>
       </c>
@@ -4032,7 +4067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4042,7 +4077,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>51</v>
       </c>
@@ -4061,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="I179" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59492</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>53</v>
       </c>
@@ -4108,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>54</v>
       </c>
@@ -4130,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>55</v>
       </c>
@@ -4149,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="I183" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+        <v>305443</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>56</v>
       </c>
@@ -4174,51 +4209,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
-        <v>45676</v>
+        <v>56525</v>
       </c>
       <c r="F185" s="9">
-        <v>56525</v>
+        <v>58662</v>
       </c>
       <c r="G185" s="9">
-        <v>58662</v>
+        <v>63966</v>
       </c>
       <c r="H185" s="9">
-        <v>63966</v>
+        <v>76838</v>
       </c>
       <c r="I185" s="9">
-        <v>66321</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70592</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
-        <v>126068</v>
+        <v>128556</v>
       </c>
       <c r="F186" s="11">
-        <v>128556</v>
+        <v>139935</v>
       </c>
       <c r="G186" s="11">
-        <v>139935</v>
+        <v>201357</v>
       </c>
       <c r="H186" s="11">
-        <v>201357</v>
+        <v>174428</v>
       </c>
       <c r="I186" s="11">
-        <v>174428</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>180948</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>59</v>
       </c>
@@ -4240,51 +4275,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
-        <v>220479</v>
+        <v>185381</v>
       </c>
       <c r="F188" s="11">
-        <v>185381</v>
+        <v>251348</v>
       </c>
       <c r="G188" s="11">
-        <v>251348</v>
+        <v>175105</v>
       </c>
       <c r="H188" s="11">
-        <v>175105</v>
+        <v>223268</v>
       </c>
       <c r="I188" s="11">
-        <v>212738</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-177475</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15">
-        <v>392223</v>
+        <v>370462</v>
       </c>
       <c r="F189" s="15">
-        <v>370462</v>
+        <v>449945</v>
       </c>
       <c r="G189" s="15">
-        <v>449945</v>
+        <v>440428</v>
       </c>
       <c r="H189" s="15">
-        <v>440428</v>
+        <v>474534</v>
       </c>
       <c r="I189" s="15">
-        <v>453487</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4294,7 +4329,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4304,7 +4339,7 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4314,7 +4349,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B193" s="7" t="s">
         <v>61</v>
       </c>
@@ -4323,7 +4358,7 @@
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>62</v>
       </c>
@@ -4334,7 +4369,7 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>64</v>
       </c>
@@ -4345,7 +4380,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>66</v>
       </c>
@@ -4356,7 +4391,7 @@
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>67</v>
       </c>
@@ -4367,7 +4402,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>68</v>
       </c>
@@ -4378,7 +4413,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>70</v>
       </c>
@@ -4389,7 +4424,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>72</v>
       </c>
@@ -4400,7 +4435,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>73</v>
       </c>
@@ -4411,7 +4446,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>74</v>
       </c>

--- a/database/industries/shoyande/gharn/cost/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0B915-D052-47DC-A534-F85700BB8324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDEF6E-1192-4613-AFB3-18EDB206DDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -700,16 +715,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I203"/>
+  <dimension ref="B1:N203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,8 +733,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +750,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -742,8 +767,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -752,8 +782,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -764,8 +799,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -776,8 +816,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -786,8 +831,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -808,8 +858,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -818,98 +883,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>2112935</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3185649</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4625891</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2357488</v>
+      </c>
+      <c r="I10" s="9">
+        <v>4913829</v>
+      </c>
+      <c r="J10" s="9">
         <v>3901465</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>4606758</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>4137548</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>6084512</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>6548651</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>94064</v>
+      </c>
+      <c r="F11" s="11">
+        <v>145846</v>
+      </c>
+      <c r="G11" s="11">
+        <v>96828</v>
+      </c>
+      <c r="H11" s="11">
+        <v>139923</v>
+      </c>
+      <c r="I11" s="11">
+        <v>168825</v>
+      </c>
+      <c r="J11" s="11">
         <v>147062</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>133364</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>204183</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>209475</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>215160</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>153476</v>
+      </c>
+      <c r="F12" s="9">
+        <v>202848</v>
+      </c>
+      <c r="G12" s="9">
+        <v>237445</v>
+      </c>
+      <c r="H12" s="9">
+        <v>238171</v>
+      </c>
+      <c r="I12" s="9">
+        <v>392223</v>
+      </c>
+      <c r="J12" s="9">
         <v>370462</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>449945</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>440428</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>474534</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>439000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>2360475</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3534343</v>
+      </c>
+      <c r="G13" s="13">
+        <v>4960164</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2735582</v>
+      </c>
+      <c r="I13" s="13">
+        <v>5474877</v>
+      </c>
+      <c r="J13" s="13">
         <v>4418989</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>5190067</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>4782159</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>6768521</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>7202811</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -928,54 +1058,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>2360475</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3534343</v>
+      </c>
+      <c r="G15" s="13">
+        <v>4960164</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2735582</v>
+      </c>
+      <c r="I15" s="13">
+        <v>5474877</v>
+      </c>
+      <c r="J15" s="13">
         <v>4418989</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>5190067</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>4782159</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>6768521</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>7202811</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-6114</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-17367</v>
+      </c>
+      <c r="G16" s="9">
+        <v>40036</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-19490</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2808</v>
+      </c>
+      <c r="J16" s="9">
         <v>10303</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>8537</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-60519</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-16393</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-105008</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -994,32 +1169,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>2354361</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3516976</v>
+      </c>
+      <c r="G18" s="15">
+        <v>5000200</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2716092</v>
+      </c>
+      <c r="I18" s="15">
+        <v>5477685</v>
+      </c>
+      <c r="J18" s="15">
         <v>4429292</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>5198604</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>4721640</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>6752128</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>7097803</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1027,65 +1232,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>444328</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>180850</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>509172</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>944085</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>964559</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>57140</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-239541</v>
+      </c>
+      <c r="G20" s="9">
+        <v>79941</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-439492</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-340128</v>
+      </c>
+      <c r="J20" s="9">
         <v>-180850</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-509172</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-944085</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-964559</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-1417650</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>2411501</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3277435</v>
+      </c>
+      <c r="G21" s="13">
+        <v>5080141</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2720928</v>
+      </c>
+      <c r="I21" s="13">
+        <v>5137557</v>
+      </c>
+      <c r="J21" s="13">
         <v>4248442</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>5649902</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>4286727</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>6731654</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>6644712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1104,30 +1354,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>2411501</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3277435</v>
+      </c>
+      <c r="G23" s="13">
+        <v>5080141</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2720928</v>
+      </c>
+      <c r="I23" s="13">
+        <v>5137557</v>
+      </c>
+      <c r="J23" s="13">
         <v>4248442</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>5649902</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>4286727</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>6731654</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>6644712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1136,8 +1416,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1146,8 +1431,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1156,10 +1446,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1178,8 +1473,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1188,198 +1498,323 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="E29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9">
         <v>117469002</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9">
         <v>89444963</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>84416103</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>79771625</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>14516618</v>
+      </c>
+      <c r="F30" s="11">
+        <v>15562515</v>
+      </c>
+      <c r="G30" s="11">
+        <v>15375479</v>
+      </c>
+      <c r="H30" s="11">
+        <v>14357354</v>
+      </c>
+      <c r="I30" s="11">
+        <v>145748899</v>
+      </c>
+      <c r="J30" s="11">
         <v>18389172</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11">
         <v>16193238</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>12149943</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>11374625</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>66716475</v>
+      </c>
+      <c r="F31" s="9">
+        <v>118795899</v>
+      </c>
+      <c r="G31" s="9">
+        <v>147621916</v>
+      </c>
+      <c r="H31" s="9">
+        <v>134885238</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F32" s="11">
+        <v>7662772</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H32" s="11">
+        <v>3804</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9">
+      <c r="E33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="9">
+        <v>3587659</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3498</v>
+      </c>
+      <c r="I33" s="9">
+        <v>3528</v>
+      </c>
+      <c r="J33" s="9">
         <v>2729026</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9">
         <v>1544060</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>1241383</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>1230750</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11">
+      <c r="E34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="11">
         <v>3363584</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="11">
         <v>4297175</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>4530788</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>4118318</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>81233093</v>
+      </c>
+      <c r="F36" s="13">
+        <v>145608845</v>
+      </c>
+      <c r="G36" s="13">
+        <v>162997395</v>
+      </c>
+      <c r="H36" s="13">
+        <v>149249894</v>
+      </c>
+      <c r="I36" s="13">
+        <v>145752427</v>
+      </c>
+      <c r="J36" s="13">
         <v>141950784</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
         <v>111479436</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>102338217</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>96495318</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1388,8 +1823,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1398,8 +1838,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1408,10 +1853,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1430,8 +1880,23 @@
       <c r="I40" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1440,198 +1905,323 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9">
+      <c r="E42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="9">
+        <v>161765944</v>
+      </c>
+      <c r="J42" s="9">
         <v>45571361</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>120847903</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>78464644</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>114520834</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>145674241</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>7907113</v>
+      </c>
+      <c r="F43" s="11">
+        <v>5051666</v>
+      </c>
+      <c r="G43" s="11">
+        <v>8452790</v>
+      </c>
+      <c r="H43" s="11">
+        <v>6887900</v>
+      </c>
+      <c r="I43" s="11">
+        <v>-60663609</v>
+      </c>
+      <c r="J43" s="11">
         <v>3499109</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>4677294</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>70362</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>2522783</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>3805763</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>139348423</v>
+      </c>
+      <c r="F44" s="9">
+        <v>139371941</v>
+      </c>
+      <c r="G44" s="9">
+        <v>116668600</v>
+      </c>
+      <c r="H44" s="9">
+        <v>74671518</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>26</v>
+      <c r="E45" s="11">
+        <v>21079003</v>
+      </c>
+      <c r="F45" s="11">
+        <v>7961742</v>
+      </c>
+      <c r="G45" s="11">
+        <v>42753</v>
+      </c>
+      <c r="H45" s="11">
+        <v>6248</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>3087720</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1502298</v>
+      </c>
+      <c r="G46" s="9">
+        <v>4912</v>
+      </c>
+      <c r="H46" s="9">
+        <v>573</v>
+      </c>
+      <c r="I46" s="9">
+        <v>846043</v>
+      </c>
+      <c r="J46" s="9">
         <v>66664</v>
       </c>
-      <c r="F46" s="9">
+      <c r="K46" s="9">
         <v>298607</v>
       </c>
-      <c r="G46" s="9">
+      <c r="L46" s="9">
         <v>249694</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>981960</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>1904281</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11">
+      <c r="E47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="11">
+        <v>18957897</v>
+      </c>
+      <c r="J47" s="11">
         <v>10940603</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>12572887</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L47" s="11">
         <v>8601118</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>14682761</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>17997952</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>171422259</v>
+      </c>
+      <c r="F49" s="13">
+        <v>153887647</v>
+      </c>
+      <c r="G49" s="13">
+        <v>125169055</v>
+      </c>
+      <c r="H49" s="13">
+        <v>81566239</v>
+      </c>
+      <c r="I49" s="13">
+        <v>120906275</v>
+      </c>
+      <c r="J49" s="13">
         <v>60077737</v>
       </c>
-      <c r="F49" s="13">
+      <c r="K49" s="13">
         <v>138396691</v>
       </c>
-      <c r="G49" s="13">
+      <c r="L49" s="13">
         <v>87385818</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>132708338</v>
       </c>
-      <c r="I49" s="13">
+      <c r="N49" s="13">
         <v>169382237</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1640,8 +2230,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1650,8 +2245,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1660,10 +2260,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1682,8 +2287,23 @@
       <c r="I53" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1692,198 +2312,323 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
+      <c r="E55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="9">
+        <v>179182180</v>
+      </c>
+      <c r="J55" s="9">
         <v>63912307</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>130530996</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>83493504</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>119165312</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>128869353</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>6861216</v>
+      </c>
+      <c r="F56" s="11">
+        <v>5238702</v>
+      </c>
+      <c r="G56" s="11">
+        <v>9470916</v>
+      </c>
+      <c r="H56" s="11">
+        <v>4048602</v>
+      </c>
+      <c r="I56" s="11">
+        <v>-53831766</v>
+      </c>
+      <c r="J56" s="11">
         <v>5276406</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>5095931</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>4113657</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>3298101</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>3256092</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>26</v>
+      <c r="E57" s="9">
+        <v>87268999</v>
+      </c>
+      <c r="F57" s="9">
+        <v>110545924</v>
+      </c>
+      <c r="G57" s="9">
+        <v>129405278</v>
+      </c>
+      <c r="H57" s="9">
+        <v>63807857</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>26</v>
+      <c r="E58" s="11">
+        <v>19216685</v>
+      </c>
+      <c r="F58" s="11">
+        <v>11275478</v>
+      </c>
+      <c r="G58" s="11">
+        <v>44750</v>
+      </c>
+      <c r="H58" s="11">
+        <v>6434</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>2440269</v>
+      </c>
+      <c r="F59" s="9">
+        <v>894226</v>
+      </c>
+      <c r="G59" s="9">
+        <v>4354</v>
+      </c>
+      <c r="H59" s="9">
+        <v>543</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1615373</v>
+      </c>
+      <c r="J59" s="9">
         <v>616902</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>933335</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>552371</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>992593</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>1025118</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11">
+      <c r="E60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="11">
+        <v>19398088</v>
+      </c>
+      <c r="J60" s="11">
         <v>10106029</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>12473870</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>8367505</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>15095231</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>14974882</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>115787169</v>
+      </c>
+      <c r="F62" s="13">
+        <v>127954330</v>
+      </c>
+      <c r="G62" s="13">
+        <v>138925298</v>
+      </c>
+      <c r="H62" s="13">
+        <v>67863436</v>
+      </c>
+      <c r="I62" s="13">
+        <v>146363875</v>
+      </c>
+      <c r="J62" s="13">
         <v>79911644</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>149034132</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>96527037</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>138551237</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>148125445</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1892,8 +2637,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1902,8 +2652,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1912,10 +2667,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1934,8 +2694,23 @@
       <c r="I66" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1944,198 +2719,323 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9">
+      <c r="E68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="9">
+        <v>117469002</v>
+      </c>
+      <c r="J68" s="9">
         <v>99128056</v>
       </c>
-      <c r="F68" s="9">
+      <c r="K68" s="9">
         <v>89444963</v>
       </c>
-      <c r="G68" s="9">
+      <c r="L68" s="9">
         <v>84416103</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>79771625</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>96576513</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>15562515</v>
+      </c>
+      <c r="F69" s="11">
+        <v>15375479</v>
+      </c>
+      <c r="G69" s="11">
+        <v>14357353</v>
+      </c>
+      <c r="H69" s="11">
+        <v>17196652</v>
+      </c>
+      <c r="I69" s="11">
+        <v>18389172</v>
+      </c>
+      <c r="J69" s="11">
         <v>16611875</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>16193238</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>12149943</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>11374625</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>11924296</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>26</v>
+      <c r="E70" s="9">
+        <v>118795899</v>
+      </c>
+      <c r="F70" s="9">
+        <v>147621916</v>
+      </c>
+      <c r="G70" s="9">
+        <v>134885238</v>
+      </c>
+      <c r="H70" s="9">
+        <v>145748899</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>26</v>
+      <c r="E71" s="11">
+        <v>7662772</v>
+      </c>
+      <c r="F71" s="11">
+        <v>4349036</v>
+      </c>
+      <c r="G71" s="11">
+        <v>3803</v>
+      </c>
+      <c r="H71" s="11">
+        <v>3618</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
+        <v>3587659</v>
+      </c>
+      <c r="F72" s="9">
+        <v>4195731</v>
+      </c>
+      <c r="G72" s="9">
+        <v>3498</v>
+      </c>
+      <c r="H72" s="9">
+        <v>3528</v>
+      </c>
+      <c r="I72" s="9">
+        <v>2729026</v>
+      </c>
+      <c r="J72" s="9">
         <v>2178788</v>
       </c>
-      <c r="F72" s="9">
+      <c r="K72" s="9">
         <v>1544060</v>
       </c>
-      <c r="G72" s="9">
+      <c r="L72" s="9">
         <v>1241383</v>
       </c>
-      <c r="H72" s="9">
+      <c r="M72" s="9">
         <v>1230750</v>
       </c>
-      <c r="I72" s="9">
+      <c r="N72" s="9">
         <v>2109913</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11">
+      <c r="E73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="11">
+        <v>3363584</v>
+      </c>
+      <c r="J73" s="11">
         <v>4198158</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>4297175</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>4530788</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>4118318</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>7141388</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>145608845</v>
+      </c>
+      <c r="F75" s="13">
+        <v>171542162</v>
+      </c>
+      <c r="G75" s="13">
+        <v>149249892</v>
+      </c>
+      <c r="H75" s="13">
+        <v>162952697</v>
+      </c>
+      <c r="I75" s="13">
+        <v>141950784</v>
+      </c>
+      <c r="J75" s="13">
         <v>122116877</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>111479436</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>102338217</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>96495318</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>117752110</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2144,8 +3044,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2154,8 +3059,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2164,10 +3074,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2186,8 +3101,23 @@
       <c r="I79" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2196,198 +3126,323 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9">
+      <c r="E81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" s="9">
         <v>800899</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="9">
+      <c r="K81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="9">
         <v>675721</v>
       </c>
-      <c r="H81" s="9">
+      <c r="M81" s="9">
         <v>766886</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>747025</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>92808</v>
+      </c>
+      <c r="F82" s="11">
+        <v>93096</v>
+      </c>
+      <c r="G82" s="11">
+        <v>209305</v>
+      </c>
+      <c r="H82" s="11">
+        <v>341262</v>
+      </c>
+      <c r="I82" s="11">
+        <v>890965</v>
+      </c>
+      <c r="J82" s="11">
         <v>490845</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="11">
+      <c r="K82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="11">
         <v>373617</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>353618</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>258638</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>26</v>
+      <c r="E83" s="9">
+        <v>280877</v>
+      </c>
+      <c r="F83" s="9">
+        <v>493301</v>
+      </c>
+      <c r="G83" s="9">
+        <v>797288</v>
+      </c>
+      <c r="H83" s="9">
+        <v>744961</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>26</v>
+      <c r="E84" s="11">
+        <v>329881</v>
+      </c>
+      <c r="F84" s="11">
+        <v>554475</v>
+      </c>
+      <c r="G84" s="11">
+        <v>599241</v>
+      </c>
+      <c r="H84" s="11">
+        <v>650646</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>857194</v>
+      </c>
+      <c r="F85" s="9">
+        <v>975224</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1801140</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1950672</v>
+      </c>
+      <c r="I85" s="9">
+        <v>2409229</v>
+      </c>
+      <c r="J85" s="9">
         <v>2078633</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="9">
+      <c r="K85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="9">
         <v>1650374</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>1404795</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>1432135</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C86" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" s="11">
+        <v>627953</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="11">
+        <v>917125</v>
+      </c>
+      <c r="M86" s="11">
+        <v>830582</v>
+      </c>
+      <c r="N86" s="11">
+        <v>876374</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11">
-        <v>627953</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="11">
-        <v>917125</v>
-      </c>
-      <c r="H86" s="11">
-        <v>830582</v>
-      </c>
-      <c r="I86" s="11">
-        <v>876374</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="C87" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>1560760</v>
+      </c>
+      <c r="F88" s="13">
+        <v>2116096</v>
+      </c>
+      <c r="G88" s="13">
+        <v>3406974</v>
+      </c>
+      <c r="H88" s="13">
+        <v>3687541</v>
+      </c>
+      <c r="I88" s="13">
+        <v>3300194</v>
+      </c>
+      <c r="J88" s="13">
         <v>3998330</v>
       </c>
-      <c r="F88" s="13">
-        <v>0</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="K88" s="13">
+        <v>0</v>
+      </c>
+      <c r="L88" s="13">
         <v>3616837</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>3355881</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>3314172</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2396,8 +3451,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2406,8 +3466,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2416,10 +3481,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2438,8 +3508,23 @@
       <c r="I92" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2448,198 +3533,323 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9">
+      <c r="E94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I94" s="9">
+        <v>2539266</v>
+      </c>
+      <c r="J94" s="9">
         <v>1209961</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K94" s="9">
         <v>1602041</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>1497986</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>2161296</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>2411169</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
+        <v>53004</v>
+      </c>
+      <c r="F95" s="11">
+        <v>173460</v>
+      </c>
+      <c r="G95" s="11">
+        <v>345438</v>
+      </c>
+      <c r="H95" s="11">
+        <v>181860</v>
+      </c>
+      <c r="I95" s="11">
+        <v>-597962</v>
+      </c>
+      <c r="J95" s="11">
         <v>22156</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>91660</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>74130</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>661</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>81136</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>26</v>
+      <c r="E96" s="9">
+        <v>948179</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1422370</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1522925</v>
+      </c>
+      <c r="H96" s="9">
+        <v>1018907</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>26</v>
+      <c r="E97" s="11">
+        <v>1077676</v>
+      </c>
+      <c r="F97" s="11">
+        <v>1463155</v>
+      </c>
+      <c r="G97" s="11">
+        <v>2111848</v>
+      </c>
+      <c r="H97" s="11">
+        <v>903445</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
+        <v>589413</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1417542</v>
+      </c>
+      <c r="G98" s="9">
+        <v>883139</v>
+      </c>
+      <c r="H98" s="9">
+        <v>886500</v>
+      </c>
+      <c r="I98" s="9">
+        <v>432465</v>
+      </c>
+      <c r="J98" s="9">
         <v>377246</v>
       </c>
-      <c r="F98" s="9">
+      <c r="K98" s="9">
         <v>450588</v>
       </c>
-      <c r="G98" s="9">
+      <c r="L98" s="9">
         <v>315154</v>
       </c>
-      <c r="H98" s="9">
+      <c r="M98" s="9">
         <v>918418</v>
       </c>
-      <c r="I98" s="9">
+      <c r="N98" s="9">
         <v>1549964</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C99" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" s="11">
+        <v>3337689</v>
+      </c>
+      <c r="J99" s="11">
+        <v>2095597</v>
+      </c>
+      <c r="K99" s="11">
+        <v>2242723</v>
+      </c>
+      <c r="L99" s="11">
+        <v>1989322</v>
+      </c>
+      <c r="M99" s="11">
+        <v>2962428</v>
+      </c>
+      <c r="N99" s="11">
+        <v>3025460</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11">
-        <v>2095597</v>
-      </c>
-      <c r="F99" s="11">
-        <v>2242723</v>
-      </c>
-      <c r="G99" s="11">
-        <v>1989322</v>
-      </c>
-      <c r="H99" s="11">
-        <v>2962428</v>
-      </c>
-      <c r="I99" s="11">
-        <v>3025460</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="C100" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>2668272</v>
+      </c>
+      <c r="F101" s="13">
+        <v>4476527</v>
+      </c>
+      <c r="G101" s="13">
+        <v>4863350</v>
+      </c>
+      <c r="H101" s="13">
+        <v>2990712</v>
+      </c>
+      <c r="I101" s="13">
+        <v>5711458</v>
+      </c>
+      <c r="J101" s="13">
         <v>3704960</v>
       </c>
-      <c r="F101" s="13">
+      <c r="K101" s="13">
         <v>4387012</v>
       </c>
-      <c r="G101" s="13">
+      <c r="L101" s="13">
         <v>3876592</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>6042803</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>7067729</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2648,8 +3858,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2658,8 +3873,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2668,10 +3888,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2690,8 +3915,23 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2700,198 +3940,323 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9">
+      <c r="E107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="9">
+        <v>2482279</v>
+      </c>
+      <c r="J107" s="9">
         <v>1291747</v>
       </c>
-      <c r="F107" s="9">
+      <c r="K107" s="9">
         <v>1646481</v>
       </c>
-      <c r="G107" s="9">
+      <c r="L107" s="9">
         <v>1406821</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>2181157</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>2267477</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>52715</v>
+      </c>
+      <c r="F108" s="11">
+        <v>57251</v>
+      </c>
+      <c r="G108" s="11">
+        <v>212046</v>
+      </c>
+      <c r="H108" s="11">
+        <v>98067</v>
+      </c>
+      <c r="I108" s="11">
+        <v>-601507</v>
+      </c>
+      <c r="J108" s="11">
         <v>112064</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>118946</v>
       </c>
-      <c r="G108" s="11">
+      <c r="L108" s="11">
         <v>94129</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>95641</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>103296</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>26</v>
+      <c r="E109" s="9">
+        <v>735755</v>
+      </c>
+      <c r="F109" s="9">
+        <v>1118383</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1561226</v>
+      </c>
+      <c r="H109" s="9">
+        <v>872903</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>26</v>
+      <c r="E110" s="11">
+        <v>853082</v>
+      </c>
+      <c r="F110" s="11">
+        <v>1418389</v>
+      </c>
+      <c r="G110" s="11">
+        <v>2058604</v>
+      </c>
+      <c r="H110" s="11">
+        <v>958575</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>471383</v>
+      </c>
+      <c r="F111" s="9">
+        <v>591626</v>
+      </c>
+      <c r="G111" s="9">
+        <v>741462</v>
+      </c>
+      <c r="H111" s="9">
+        <v>427943</v>
+      </c>
+      <c r="I111" s="9">
+        <v>768708</v>
+      </c>
+      <c r="J111" s="9">
         <v>538819</v>
       </c>
-      <c r="F111" s="9">
+      <c r="K111" s="9">
         <v>711627</v>
       </c>
-      <c r="G111" s="9">
+      <c r="L111" s="9">
         <v>560733</v>
       </c>
-      <c r="H111" s="9">
+      <c r="M111" s="9">
         <v>891078</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>1292079</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" s="11">
+        <v>3320991</v>
+      </c>
+      <c r="J112" s="11">
+        <v>1958835</v>
+      </c>
+      <c r="K112" s="11">
+        <v>2129704</v>
+      </c>
+      <c r="L112" s="11">
+        <v>2075865</v>
+      </c>
+      <c r="M112" s="11">
+        <v>2916636</v>
+      </c>
+      <c r="N112" s="11">
+        <v>2885799</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11">
-        <v>1958835</v>
-      </c>
-      <c r="F112" s="11">
-        <v>2129704</v>
-      </c>
-      <c r="G112" s="11">
-        <v>2075865</v>
-      </c>
-      <c r="H112" s="11">
-        <v>2916636</v>
-      </c>
-      <c r="I112" s="11">
-        <v>2885799</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="C113" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>2112935</v>
+      </c>
+      <c r="F114" s="13">
+        <v>3185649</v>
+      </c>
+      <c r="G114" s="13">
+        <v>4573338</v>
+      </c>
+      <c r="H114" s="13">
+        <v>2357488</v>
+      </c>
+      <c r="I114" s="13">
+        <v>5970471</v>
+      </c>
+      <c r="J114" s="13">
         <v>3901465</v>
       </c>
-      <c r="F114" s="13">
+      <c r="K114" s="13">
         <v>4606758</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>4137548</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>6084512</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>6548651</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2900,8 +4265,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2910,8 +4280,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2920,10 +4295,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2942,8 +4322,23 @@
       <c r="I118" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2952,198 +4347,323 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9">
+      <c r="E120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="9">
+        <v>801948</v>
+      </c>
+      <c r="J120" s="9">
         <v>720162</v>
       </c>
-      <c r="F120" s="9">
+      <c r="K120" s="9">
         <v>675722</v>
       </c>
-      <c r="G120" s="9">
+      <c r="L120" s="9">
         <v>766886</v>
       </c>
-      <c r="H120" s="9">
+      <c r="M120" s="9">
         <v>747025</v>
       </c>
-      <c r="I120" s="9">
+      <c r="N120" s="9">
         <v>890717</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>93096</v>
+      </c>
+      <c r="F121" s="11">
+        <v>209305</v>
+      </c>
+      <c r="G121" s="11">
+        <v>342697</v>
+      </c>
+      <c r="H121" s="11">
+        <v>425055</v>
+      </c>
+      <c r="I121" s="11">
+        <v>490811</v>
+      </c>
+      <c r="J121" s="11">
         <v>400903</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>373617</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>353618</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>258638</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>236478</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>26</v>
+      <c r="E122" s="9">
+        <v>493301</v>
+      </c>
+      <c r="F122" s="9">
+        <v>797288</v>
+      </c>
+      <c r="G122" s="9">
+        <v>758987</v>
+      </c>
+      <c r="H122" s="9">
+        <v>890965</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>26</v>
+      <c r="E123" s="11">
+        <v>554475</v>
+      </c>
+      <c r="F123" s="11">
+        <v>599241</v>
+      </c>
+      <c r="G123" s="11">
+        <v>652485</v>
+      </c>
+      <c r="H123" s="11">
+        <v>595516</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
+        <v>975224</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1801140</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1942817</v>
+      </c>
+      <c r="H124" s="9">
+        <v>2409229</v>
+      </c>
+      <c r="I124" s="9">
+        <v>2072986</v>
+      </c>
+      <c r="J124" s="9">
         <v>1911413</v>
       </c>
-      <c r="F124" s="9">
+      <c r="K124" s="9">
         <v>1650374</v>
       </c>
-      <c r="G124" s="9">
+      <c r="L124" s="9">
         <v>1404795</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>1432135</v>
       </c>
-      <c r="I124" s="9">
+      <c r="N124" s="9">
         <v>1690020</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C125" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" s="11">
+        <v>667344</v>
+      </c>
+      <c r="J125" s="11">
+        <v>804106</v>
+      </c>
+      <c r="K125" s="11">
+        <v>917125</v>
+      </c>
+      <c r="L125" s="11">
+        <v>830582</v>
+      </c>
+      <c r="M125" s="11">
+        <v>876374</v>
+      </c>
+      <c r="N125" s="11">
+        <v>1016035</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11">
-        <v>804106</v>
-      </c>
-      <c r="F125" s="11">
-        <v>917125</v>
-      </c>
-      <c r="G125" s="11">
-        <v>830582</v>
-      </c>
-      <c r="H125" s="11">
-        <v>876374</v>
-      </c>
-      <c r="I125" s="11">
-        <v>1016035</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B126" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="C126" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
+        <v>2116096</v>
+      </c>
+      <c r="F127" s="13">
+        <v>3406974</v>
+      </c>
+      <c r="G127" s="13">
+        <v>3696986</v>
+      </c>
+      <c r="H127" s="13">
+        <v>4320765</v>
+      </c>
+      <c r="I127" s="13">
+        <v>4033089</v>
+      </c>
+      <c r="J127" s="13">
         <v>3836584</v>
       </c>
-      <c r="F127" s="13">
+      <c r="K127" s="13">
         <v>3616838</v>
       </c>
-      <c r="G127" s="13">
+      <c r="L127" s="13">
         <v>3355881</v>
       </c>
-      <c r="H127" s="13">
+      <c r="M127" s="13">
         <v>3314172</v>
       </c>
-      <c r="I127" s="13">
+      <c r="N127" s="13">
         <v>3833250</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3152,8 +4672,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3162,8 +4687,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3172,10 +4702,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3194,8 +4729,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3204,152 +4754,247 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9">
+      <c r="E133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="9">
         <v>6827</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>7265</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>7555</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>9085</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>9365</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>6393</v>
+      </c>
+      <c r="F134" s="11">
+        <v>5982</v>
+      </c>
+      <c r="G134" s="11">
+        <v>13613</v>
+      </c>
+      <c r="H134" s="11">
+        <v>23769</v>
+      </c>
+      <c r="I134" s="11">
+        <v>6113</v>
+      </c>
+      <c r="J134" s="11">
         <v>26690</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>24134</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>23072</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>29105</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>22738</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>26</v>
+      <c r="E135" s="9">
+        <v>4210</v>
+      </c>
+      <c r="F135" s="9">
+        <v>4153</v>
+      </c>
+      <c r="G135" s="9">
+        <v>5401</v>
+      </c>
+      <c r="H135" s="9">
+        <v>5523</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F136" s="11">
+        <v>72360</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H136" s="11">
+        <v>171042587</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N136" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9">
+      <c r="E137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" s="9">
+        <v>271827</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" s="9">
+        <v>557653516</v>
+      </c>
+      <c r="I137" s="9">
+        <v>682888039</v>
+      </c>
+      <c r="J137" s="9">
         <v>759607</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>877283</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>1068854</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>1131637</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>1163628</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11">
+      <c r="E138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J138" s="11">
         <v>198403</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>191538</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>213425</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>183320</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>212799</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3358,8 +5003,13 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3368,8 +5018,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3378,10 +5033,15 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3400,8 +5060,23 @@
       <c r="I142" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3410,176 +5085,286 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D144" s="9"/>
-      <c r="E144" s="9">
+      <c r="E144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" s="9">
+        <v>15697</v>
+      </c>
+      <c r="J144" s="9">
         <v>26551</v>
       </c>
-      <c r="F144" s="9">
+      <c r="K144" s="9">
         <v>13257</v>
       </c>
-      <c r="G144" s="9">
+      <c r="L144" s="9">
         <v>19091</v>
       </c>
-      <c r="H144" s="9">
+      <c r="M144" s="9">
         <v>18873</v>
       </c>
-      <c r="I144" s="9">
+      <c r="N144" s="9">
         <v>16552</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11">
+        <v>6703</v>
+      </c>
+      <c r="F145" s="11">
+        <v>34337</v>
+      </c>
+      <c r="G145" s="11">
+        <v>40867</v>
+      </c>
+      <c r="H145" s="11">
+        <v>26403</v>
+      </c>
+      <c r="I145" s="11">
+        <v>9857</v>
+      </c>
+      <c r="J145" s="11">
         <v>6332</v>
       </c>
-      <c r="F145" s="11">
+      <c r="K145" s="11">
         <v>19597</v>
       </c>
-      <c r="G145" s="11">
+      <c r="L145" s="11">
         <v>1053552</v>
       </c>
-      <c r="H145" s="11">
+      <c r="M145" s="11">
         <v>262</v>
       </c>
-      <c r="I145" s="11">
+      <c r="N145" s="11">
         <v>21319</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D146" s="9"/>
-      <c r="E146" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>26</v>
+      <c r="E146" s="9">
+        <v>6804</v>
+      </c>
+      <c r="F146" s="9">
+        <v>10206</v>
+      </c>
+      <c r="G146" s="9">
+        <v>13053</v>
+      </c>
+      <c r="H146" s="9">
+        <v>13645</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N146" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>26</v>
+      <c r="E147" s="11">
+        <v>51126</v>
+      </c>
+      <c r="F147" s="11">
+        <v>183773</v>
+      </c>
+      <c r="G147" s="11">
+        <v>49396487</v>
+      </c>
+      <c r="H147" s="11">
+        <v>144597471</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
+        <v>190889</v>
+      </c>
+      <c r="F148" s="9">
+        <v>943582</v>
+      </c>
+      <c r="G148" s="9">
+        <v>179792142</v>
+      </c>
+      <c r="H148" s="9">
+        <v>1547120419</v>
+      </c>
+      <c r="I148" s="9">
+        <v>511162</v>
+      </c>
+      <c r="J148" s="9">
         <v>5658916</v>
       </c>
-      <c r="F148" s="9">
+      <c r="K148" s="9">
         <v>1508967</v>
       </c>
-      <c r="G148" s="9">
+      <c r="L148" s="9">
         <v>1262161</v>
       </c>
-      <c r="H148" s="9">
+      <c r="M148" s="9">
         <v>935291</v>
       </c>
-      <c r="I148" s="9">
+      <c r="N148" s="9">
         <v>813937</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="11">
+      <c r="E149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="11">
+        <v>176058</v>
+      </c>
+      <c r="J149" s="11">
         <v>191543</v>
       </c>
-      <c r="F149" s="11">
+      <c r="K149" s="11">
         <v>178378</v>
       </c>
-      <c r="G149" s="11">
+      <c r="L149" s="11">
         <v>231286</v>
       </c>
-      <c r="H149" s="11">
+      <c r="M149" s="11">
         <v>201762</v>
       </c>
-      <c r="I149" s="11">
+      <c r="N149" s="11">
         <v>168100</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3588,8 +5373,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3598,8 +5388,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3608,10 +5403,15 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3630,8 +5430,23 @@
       <c r="I154" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3640,176 +5455,286 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D156" s="9"/>
-      <c r="E156" s="9">
+      <c r="E156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I156" s="9">
+        <v>13853</v>
+      </c>
+      <c r="J156" s="9">
         <v>20211</v>
       </c>
-      <c r="F156" s="9">
+      <c r="K156" s="9">
         <v>12614</v>
       </c>
-      <c r="G156" s="9">
+      <c r="L156" s="9">
         <v>16849</v>
       </c>
-      <c r="H156" s="9">
+      <c r="M156" s="9">
         <v>18304</v>
       </c>
-      <c r="I156" s="9">
+      <c r="N156" s="9">
         <v>17595</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
+        <v>7683</v>
+      </c>
+      <c r="F157" s="11">
+        <v>10928</v>
+      </c>
+      <c r="G157" s="11">
+        <v>22389</v>
+      </c>
+      <c r="H157" s="11">
+        <v>24222</v>
+      </c>
+      <c r="I157" s="11">
+        <v>11174</v>
+      </c>
+      <c r="J157" s="11">
         <v>21239</v>
       </c>
-      <c r="F157" s="11">
+      <c r="K157" s="11">
         <v>23341</v>
       </c>
-      <c r="G157" s="11">
+      <c r="L157" s="11">
         <v>22882</v>
       </c>
-      <c r="H157" s="11">
+      <c r="M157" s="11">
         <v>28999</v>
       </c>
-      <c r="I157" s="11">
+      <c r="N157" s="11">
         <v>31724</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>26</v>
+      <c r="E158" s="9">
+        <v>8431</v>
+      </c>
+      <c r="F158" s="9">
+        <v>10117</v>
+      </c>
+      <c r="G158" s="9">
+        <v>12065</v>
+      </c>
+      <c r="H158" s="9">
+        <v>13680</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L158" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M158" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N158" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D159" s="11"/>
-      <c r="E159" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>26</v>
+      <c r="E159" s="11">
+        <v>44393</v>
+      </c>
+      <c r="F159" s="11">
+        <v>125794</v>
+      </c>
+      <c r="G159" s="11">
+        <v>46002324</v>
+      </c>
+      <c r="H159" s="11">
+        <v>148985856</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L159" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M159" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N159" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
+        <v>193168</v>
+      </c>
+      <c r="F160" s="9">
+        <v>661607</v>
+      </c>
+      <c r="G160" s="9">
+        <v>170294442</v>
+      </c>
+      <c r="H160" s="9">
+        <v>788108656</v>
+      </c>
+      <c r="I160" s="9">
+        <v>475870</v>
+      </c>
+      <c r="J160" s="9">
         <v>873427</v>
       </c>
-      <c r="F160" s="9">
+      <c r="K160" s="9">
         <v>762456</v>
       </c>
-      <c r="G160" s="9">
+      <c r="L160" s="9">
         <v>1015138</v>
       </c>
-      <c r="H160" s="9">
+      <c r="M160" s="9">
         <v>897727</v>
       </c>
-      <c r="I160" s="9">
+      <c r="N160" s="9">
         <v>1260420</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="11">
+      <c r="E161" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I161" s="11">
+        <v>171202</v>
+      </c>
+      <c r="J161" s="11">
         <v>193828</v>
       </c>
-      <c r="F161" s="11">
+      <c r="K161" s="11">
         <v>170733</v>
       </c>
-      <c r="G161" s="11">
+      <c r="L161" s="11">
         <v>248087</v>
       </c>
-      <c r="H161" s="11">
+      <c r="M161" s="11">
         <v>193216</v>
       </c>
-      <c r="I161" s="11">
+      <c r="N161" s="11">
         <v>192709</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N162" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3818,8 +5743,13 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3828,8 +5758,13 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3838,10 +5773,15 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -3860,8 +5800,23 @@
       <c r="I166" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L166" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M166" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N166" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3870,152 +5825,247 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D168" s="9"/>
-      <c r="E168" s="9">
+      <c r="E168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" s="9">
+        <v>6827</v>
+      </c>
+      <c r="J168" s="9">
         <v>7265</v>
       </c>
-      <c r="F168" s="9">
+      <c r="K168" s="9">
         <v>7555</v>
       </c>
-      <c r="G168" s="9">
+      <c r="L168" s="9">
         <v>9085</v>
       </c>
-      <c r="H168" s="9">
+      <c r="M168" s="9">
         <v>9365</v>
       </c>
-      <c r="I168" s="9">
+      <c r="N168" s="9">
         <v>9223</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D169" s="11"/>
-      <c r="E169" s="11">
+      <c r="E169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I169" s="11">
+        <v>26690</v>
+      </c>
+      <c r="J169" s="11">
         <v>24134</v>
       </c>
-      <c r="F169" s="11">
+      <c r="K169" s="11">
         <v>23072</v>
       </c>
-      <c r="G169" s="11">
+      <c r="L169" s="11">
         <v>29105</v>
       </c>
-      <c r="H169" s="11">
+      <c r="M169" s="11">
         <v>22738</v>
       </c>
-      <c r="I169" s="11">
+      <c r="N169" s="11">
         <v>19832</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N170" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J171" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K171" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L171" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M171" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N171" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D172" s="9"/>
-      <c r="E172" s="9">
+      <c r="E172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" s="9">
+        <v>759607</v>
+      </c>
+      <c r="J172" s="9">
         <v>877283</v>
       </c>
-      <c r="F172" s="9">
+      <c r="K172" s="9">
         <v>1068854</v>
       </c>
-      <c r="G172" s="9">
+      <c r="L172" s="9">
         <v>1131637</v>
       </c>
-      <c r="H172" s="9">
+      <c r="M172" s="9">
         <v>1163628</v>
       </c>
-      <c r="I172" s="9">
+      <c r="N172" s="9">
         <v>800990</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D173" s="11"/>
-      <c r="E173" s="11">
+      <c r="E173" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I173" s="11">
+        <v>198403</v>
+      </c>
+      <c r="J173" s="11">
         <v>191538</v>
       </c>
-      <c r="F173" s="11">
+      <c r="K173" s="11">
         <v>213425</v>
       </c>
-      <c r="G173" s="11">
+      <c r="L173" s="11">
         <v>183320</v>
       </c>
-      <c r="H173" s="11">
+      <c r="M173" s="11">
         <v>212799</v>
       </c>
-      <c r="I173" s="11">
+      <c r="N173" s="11">
         <v>142274</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4024,8 +6074,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4034,8 +6089,13 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4044,10 +6104,15 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4066,8 +6131,23 @@
       <c r="I177" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M177" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N177" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4076,10 +6156,15 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -4096,12 +6181,27 @@
         <v>0</v>
       </c>
       <c r="I179" s="9">
+        <v>0</v>
+      </c>
+      <c r="J179" s="9">
+        <v>0</v>
+      </c>
+      <c r="K179" s="9">
+        <v>0</v>
+      </c>
+      <c r="L179" s="9">
+        <v>0</v>
+      </c>
+      <c r="M179" s="9">
+        <v>0</v>
+      </c>
+      <c r="N179" s="9">
         <v>59492</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -4120,10 +6220,25 @@
       <c r="I180" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="11">
+        <v>0</v>
+      </c>
+      <c r="K180" s="11">
+        <v>0</v>
+      </c>
+      <c r="L180" s="11">
+        <v>0</v>
+      </c>
+      <c r="M180" s="11">
+        <v>0</v>
+      </c>
+      <c r="N180" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -4142,10 +6257,25 @@
       <c r="I181" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="9">
+        <v>0</v>
+      </c>
+      <c r="K181" s="9">
+        <v>0</v>
+      </c>
+      <c r="L181" s="9">
+        <v>0</v>
+      </c>
+      <c r="M181" s="9">
+        <v>0</v>
+      </c>
+      <c r="N181" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -4164,10 +6294,25 @@
       <c r="I182" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="11">
+        <v>0</v>
+      </c>
+      <c r="K182" s="11">
+        <v>0</v>
+      </c>
+      <c r="L182" s="11">
+        <v>0</v>
+      </c>
+      <c r="M182" s="11">
+        <v>0</v>
+      </c>
+      <c r="N182" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -4184,12 +6329,27 @@
         <v>0</v>
       </c>
       <c r="I183" s="9">
+        <v>0</v>
+      </c>
+      <c r="J183" s="9">
+        <v>0</v>
+      </c>
+      <c r="K183" s="9">
+        <v>0</v>
+      </c>
+      <c r="L183" s="9">
+        <v>0</v>
+      </c>
+      <c r="M183" s="9">
+        <v>0</v>
+      </c>
+      <c r="N183" s="9">
         <v>305443</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -4208,54 +6368,99 @@
       <c r="I184" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="11">
+        <v>0</v>
+      </c>
+      <c r="K184" s="11">
+        <v>0</v>
+      </c>
+      <c r="L184" s="11">
+        <v>0</v>
+      </c>
+      <c r="M184" s="11">
+        <v>0</v>
+      </c>
+      <c r="N184" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
+        <v>24078</v>
+      </c>
+      <c r="F185" s="9">
+        <v>27293</v>
+      </c>
+      <c r="G185" s="9">
+        <v>32299</v>
+      </c>
+      <c r="H185" s="9">
+        <v>29256</v>
+      </c>
+      <c r="I185" s="9">
+        <v>45676</v>
+      </c>
+      <c r="J185" s="9">
         <v>56525</v>
       </c>
-      <c r="F185" s="9">
+      <c r="K185" s="9">
         <v>58662</v>
       </c>
-      <c r="G185" s="9">
+      <c r="L185" s="9">
         <v>63966</v>
       </c>
-      <c r="H185" s="9">
+      <c r="M185" s="9">
         <v>76838</v>
       </c>
-      <c r="I185" s="9">
+      <c r="N185" s="9">
         <v>70592</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
+        <v>54894</v>
+      </c>
+      <c r="F186" s="11">
+        <v>66199</v>
+      </c>
+      <c r="G186" s="11">
+        <v>94368</v>
+      </c>
+      <c r="H186" s="11">
+        <v>116555</v>
+      </c>
+      <c r="I186" s="11">
+        <v>126068</v>
+      </c>
+      <c r="J186" s="11">
         <v>128556</v>
       </c>
-      <c r="F186" s="11">
+      <c r="K186" s="11">
         <v>139935</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>201357</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>174428</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>180948</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -4274,52 +6479,97 @@
       <c r="I187" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="9">
+        <v>0</v>
+      </c>
+      <c r="K187" s="9">
+        <v>0</v>
+      </c>
+      <c r="L187" s="9">
+        <v>0</v>
+      </c>
+      <c r="M187" s="9">
+        <v>0</v>
+      </c>
+      <c r="N187" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
+        <v>74504</v>
+      </c>
+      <c r="F188" s="11">
+        <v>109356</v>
+      </c>
+      <c r="G188" s="11">
+        <v>110778</v>
+      </c>
+      <c r="H188" s="11">
+        <v>92360</v>
+      </c>
+      <c r="I188" s="11">
+        <v>220479</v>
+      </c>
+      <c r="J188" s="11">
         <v>185381</v>
       </c>
-      <c r="F188" s="11">
+      <c r="K188" s="11">
         <v>251348</v>
       </c>
-      <c r="G188" s="11">
+      <c r="L188" s="11">
         <v>175105</v>
       </c>
-      <c r="H188" s="11">
+      <c r="M188" s="11">
         <v>223268</v>
       </c>
-      <c r="I188" s="11">
+      <c r="N188" s="11">
         <v>-177475</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15">
+        <v>153476</v>
+      </c>
+      <c r="F189" s="15">
+        <v>202848</v>
+      </c>
+      <c r="G189" s="15">
+        <v>237445</v>
+      </c>
+      <c r="H189" s="15">
+        <v>238171</v>
+      </c>
+      <c r="I189" s="15">
+        <v>392223</v>
+      </c>
+      <c r="J189" s="15">
         <v>370462</v>
       </c>
-      <c r="F189" s="15">
+      <c r="K189" s="15">
         <v>449945</v>
       </c>
-      <c r="G189" s="15">
+      <c r="L189" s="15">
         <v>440428</v>
       </c>
-      <c r="H189" s="15">
+      <c r="M189" s="15">
         <v>474534</v>
       </c>
-      <c r="I189" s="15">
+      <c r="N189" s="15">
         <v>439000</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4328,8 +6578,13 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4338,8 +6593,13 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4348,110 +6608,115 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C203" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>

--- a/database/industries/shoyande/gharn/cost/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDEF6E-1192-4613-AFB3-18EDB206DDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE194F5-1CB4-40A8-8E8E-3315D7592EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -719,12 +719,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -739,7 +739,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -788,7 +788,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -837,7 +837,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -874,7 +874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -889,155 +889,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2112935</v>
+        <v>3185649</v>
       </c>
       <c r="F10" s="9">
-        <v>3185649</v>
+        <v>4625891</v>
       </c>
       <c r="G10" s="9">
-        <v>4625891</v>
+        <v>2357488</v>
       </c>
       <c r="H10" s="9">
-        <v>2357488</v>
+        <v>4913829</v>
       </c>
       <c r="I10" s="9">
-        <v>4913829</v>
+        <v>3901465</v>
       </c>
       <c r="J10" s="9">
-        <v>3901465</v>
+        <v>4606758</v>
       </c>
       <c r="K10" s="9">
-        <v>4606758</v>
+        <v>4137548</v>
       </c>
       <c r="L10" s="9">
-        <v>4137548</v>
+        <v>6084512</v>
       </c>
       <c r="M10" s="9">
-        <v>6084512</v>
+        <v>6548651</v>
       </c>
       <c r="N10" s="9">
-        <v>6548651</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7091154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>94064</v>
+        <v>145846</v>
       </c>
       <c r="F11" s="11">
-        <v>145846</v>
+        <v>96828</v>
       </c>
       <c r="G11" s="11">
-        <v>96828</v>
+        <v>139923</v>
       </c>
       <c r="H11" s="11">
-        <v>139923</v>
+        <v>168825</v>
       </c>
       <c r="I11" s="11">
-        <v>168825</v>
+        <v>147062</v>
       </c>
       <c r="J11" s="11">
-        <v>147062</v>
+        <v>133364</v>
       </c>
       <c r="K11" s="11">
-        <v>133364</v>
+        <v>204183</v>
       </c>
       <c r="L11" s="11">
-        <v>204183</v>
+        <v>209475</v>
       </c>
       <c r="M11" s="11">
-        <v>209475</v>
+        <v>215160</v>
       </c>
       <c r="N11" s="11">
-        <v>215160</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>224059</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>153476</v>
+        <v>202848</v>
       </c>
       <c r="F12" s="9">
-        <v>202848</v>
+        <v>237445</v>
       </c>
       <c r="G12" s="9">
-        <v>237445</v>
+        <v>238171</v>
       </c>
       <c r="H12" s="9">
-        <v>238171</v>
+        <v>392223</v>
       </c>
       <c r="I12" s="9">
-        <v>392223</v>
+        <v>370462</v>
       </c>
       <c r="J12" s="9">
-        <v>370462</v>
+        <v>449945</v>
       </c>
       <c r="K12" s="9">
-        <v>449945</v>
+        <v>440428</v>
       </c>
       <c r="L12" s="9">
-        <v>440428</v>
+        <v>474534</v>
       </c>
       <c r="M12" s="9">
-        <v>474534</v>
+        <v>439000</v>
       </c>
       <c r="N12" s="9">
-        <v>439000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>537551</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>2360475</v>
+        <v>3534343</v>
       </c>
       <c r="F13" s="13">
-        <v>3534343</v>
+        <v>4960164</v>
       </c>
       <c r="G13" s="13">
-        <v>4960164</v>
+        <v>2735582</v>
       </c>
       <c r="H13" s="13">
-        <v>2735582</v>
+        <v>5474877</v>
       </c>
       <c r="I13" s="13">
-        <v>5474877</v>
+        <v>4418989</v>
       </c>
       <c r="J13" s="13">
-        <v>4418989</v>
+        <v>5190067</v>
       </c>
       <c r="K13" s="13">
-        <v>5190067</v>
+        <v>4782159</v>
       </c>
       <c r="L13" s="13">
-        <v>4782159</v>
+        <v>6768521</v>
       </c>
       <c r="M13" s="13">
-        <v>6768521</v>
+        <v>7202811</v>
       </c>
       <c r="N13" s="13">
-        <v>7202811</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7852764</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1074,81 +1074,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2360475</v>
+        <v>3534343</v>
       </c>
       <c r="F15" s="13">
-        <v>3534343</v>
+        <v>4960164</v>
       </c>
       <c r="G15" s="13">
-        <v>4960164</v>
+        <v>2735582</v>
       </c>
       <c r="H15" s="13">
-        <v>2735582</v>
+        <v>5474877</v>
       </c>
       <c r="I15" s="13">
-        <v>5474877</v>
+        <v>4418989</v>
       </c>
       <c r="J15" s="13">
-        <v>4418989</v>
+        <v>5190067</v>
       </c>
       <c r="K15" s="13">
-        <v>5190067</v>
+        <v>4782159</v>
       </c>
       <c r="L15" s="13">
-        <v>4782159</v>
+        <v>6768521</v>
       </c>
       <c r="M15" s="13">
-        <v>6768521</v>
+        <v>7202811</v>
       </c>
       <c r="N15" s="13">
-        <v>7202811</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7852764</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-6114</v>
+        <v>-17367</v>
       </c>
       <c r="F16" s="9">
-        <v>-17367</v>
+        <v>40036</v>
       </c>
       <c r="G16" s="9">
-        <v>40036</v>
+        <v>-19490</v>
       </c>
       <c r="H16" s="9">
-        <v>-19490</v>
+        <v>2808</v>
       </c>
       <c r="I16" s="9">
-        <v>2808</v>
+        <v>10303</v>
       </c>
       <c r="J16" s="9">
-        <v>10303</v>
+        <v>8537</v>
       </c>
       <c r="K16" s="9">
-        <v>8537</v>
+        <v>-60519</v>
       </c>
       <c r="L16" s="9">
-        <v>-60519</v>
+        <v>-16393</v>
       </c>
       <c r="M16" s="9">
-        <v>-16393</v>
+        <v>-105008</v>
       </c>
       <c r="N16" s="9">
-        <v>-105008</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>182904</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1185,44 +1185,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>2354361</v>
+        <v>3516976</v>
       </c>
       <c r="F18" s="15">
-        <v>3516976</v>
+        <v>5000200</v>
       </c>
       <c r="G18" s="15">
-        <v>5000200</v>
+        <v>2716092</v>
       </c>
       <c r="H18" s="15">
-        <v>2716092</v>
+        <v>5477685</v>
       </c>
       <c r="I18" s="15">
-        <v>5477685</v>
+        <v>4429292</v>
       </c>
       <c r="J18" s="15">
-        <v>4429292</v>
+        <v>5198604</v>
       </c>
       <c r="K18" s="15">
-        <v>5198604</v>
+        <v>4721640</v>
       </c>
       <c r="L18" s="15">
-        <v>4721640</v>
+        <v>6752128</v>
       </c>
       <c r="M18" s="15">
-        <v>6752128</v>
+        <v>7097803</v>
       </c>
       <c r="N18" s="15">
-        <v>7097803</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8035668</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1232,108 +1232,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>524269</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>444328</v>
       </c>
       <c r="H19" s="11">
-        <v>444328</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>960470</v>
       </c>
       <c r="K19" s="11">
-        <v>180850</v>
+        <v>509172</v>
       </c>
       <c r="L19" s="11">
-        <v>509172</v>
+        <v>944085</v>
       </c>
       <c r="M19" s="11">
-        <v>944085</v>
+        <v>964559</v>
       </c>
       <c r="N19" s="11">
-        <v>964559</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1417650</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>57140</v>
+        <v>-239541</v>
       </c>
       <c r="F20" s="9">
-        <v>-239541</v>
+        <v>-444328</v>
       </c>
       <c r="G20" s="9">
-        <v>79941</v>
+        <v>-439492</v>
       </c>
       <c r="H20" s="9">
-        <v>-439492</v>
+        <v>-340128</v>
       </c>
       <c r="I20" s="9">
-        <v>-340128</v>
+        <v>-180850</v>
       </c>
       <c r="J20" s="9">
-        <v>-180850</v>
+        <v>-509172</v>
       </c>
       <c r="K20" s="9">
-        <v>-509172</v>
+        <v>-944085</v>
       </c>
       <c r="L20" s="9">
-        <v>-944085</v>
+        <v>-964559</v>
       </c>
       <c r="M20" s="9">
-        <v>-964559</v>
+        <v>-1417650</v>
       </c>
       <c r="N20" s="9">
-        <v>-1417650</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-799101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>2411501</v>
+        <v>3277435</v>
       </c>
       <c r="F21" s="13">
-        <v>3277435</v>
+        <v>5080141</v>
       </c>
       <c r="G21" s="13">
-        <v>5080141</v>
+        <v>2720928</v>
       </c>
       <c r="H21" s="13">
-        <v>2720928</v>
+        <v>5137557</v>
       </c>
       <c r="I21" s="13">
-        <v>5137557</v>
+        <v>4248442</v>
       </c>
       <c r="J21" s="13">
-        <v>4248442</v>
+        <v>5649902</v>
       </c>
       <c r="K21" s="13">
-        <v>5649902</v>
+        <v>4286727</v>
       </c>
       <c r="L21" s="13">
-        <v>4286727</v>
+        <v>6731654</v>
       </c>
       <c r="M21" s="13">
-        <v>6731654</v>
+        <v>6644712</v>
       </c>
       <c r="N21" s="13">
-        <v>6644712</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8654217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1370,44 +1370,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>2411501</v>
+        <v>3277435</v>
       </c>
       <c r="F23" s="13">
-        <v>3277435</v>
+        <v>5080141</v>
       </c>
       <c r="G23" s="13">
-        <v>5080141</v>
+        <v>2720928</v>
       </c>
       <c r="H23" s="13">
-        <v>2720928</v>
+        <v>5137557</v>
       </c>
       <c r="I23" s="13">
-        <v>5137557</v>
+        <v>4248442</v>
       </c>
       <c r="J23" s="13">
-        <v>4248442</v>
+        <v>5649902</v>
       </c>
       <c r="K23" s="13">
-        <v>5649902</v>
+        <v>4286727</v>
       </c>
       <c r="L23" s="13">
-        <v>4286727</v>
+        <v>6731654</v>
       </c>
       <c r="M23" s="13">
-        <v>6731654</v>
+        <v>6644712</v>
       </c>
       <c r="N23" s="13">
-        <v>6644712</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8654217</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1422,7 +1422,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1437,7 +1437,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1504,7 +1504,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1524,26 +1524,26 @@
       <c r="H29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="9">
+      <c r="I29" s="9">
         <v>117469002</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>31</v>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9">
+        <v>89444963</v>
       </c>
       <c r="L29" s="9">
-        <v>89444963</v>
+        <v>84416103</v>
       </c>
       <c r="M29" s="9">
-        <v>84416103</v>
+        <v>79771625</v>
       </c>
       <c r="N29" s="9">
-        <v>79771625</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>96576513</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1552,37 +1552,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>14516618</v>
+        <v>15562515</v>
       </c>
       <c r="F30" s="11">
-        <v>15562515</v>
+        <v>15375479</v>
       </c>
       <c r="G30" s="11">
-        <v>15375479</v>
+        <v>14357354</v>
       </c>
       <c r="H30" s="11">
-        <v>14357354</v>
+        <v>145748899</v>
       </c>
       <c r="I30" s="11">
-        <v>145748899</v>
-      </c>
-      <c r="J30" s="11">
         <v>18389172</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>31</v>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11">
+        <v>16193238</v>
       </c>
       <c r="L30" s="11">
-        <v>16193238</v>
+        <v>12149943</v>
       </c>
       <c r="M30" s="11">
-        <v>12149943</v>
+        <v>11374625</v>
       </c>
       <c r="N30" s="11">
-        <v>11374625</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11924296</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>66716475</v>
+        <v>118795899</v>
       </c>
       <c r="F31" s="9">
-        <v>118795899</v>
+        <v>147621916</v>
       </c>
       <c r="G31" s="9">
-        <v>147621916</v>
-      </c>
-      <c r="H31" s="9">
         <v>134885238</v>
       </c>
+      <c r="H31" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I31" s="9" t="s">
         <v>31</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1629,18 +1629,18 @@
         <v>35</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="E32" s="11">
         <v>7662772</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="F32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="11">
         <v>3804</v>
       </c>
+      <c r="H32" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I32" s="11" t="s">
         <v>31</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1668,38 +1668,38 @@
         <v>37</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="E33" s="9">
         <v>3587659</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>31</v>
+      <c r="F33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="9">
+        <v>3498</v>
       </c>
       <c r="H33" s="9">
-        <v>3498</v>
+        <v>3528</v>
       </c>
       <c r="I33" s="9">
-        <v>3528</v>
-      </c>
-      <c r="J33" s="9">
         <v>2729026</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>31</v>
+      <c r="J33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1544060</v>
       </c>
       <c r="L33" s="9">
-        <v>1544060</v>
+        <v>1241383</v>
       </c>
       <c r="M33" s="9">
-        <v>1241383</v>
+        <v>1230750</v>
       </c>
       <c r="N33" s="9">
-        <v>1230750</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2109913</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
@@ -1719,26 +1719,26 @@
       <c r="H34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="I34" s="11">
         <v>3363584</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>31</v>
+      <c r="J34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="11">
+        <v>4297175</v>
       </c>
       <c r="L34" s="11">
-        <v>4297175</v>
+        <v>4530788</v>
       </c>
       <c r="M34" s="11">
-        <v>4530788</v>
+        <v>4118318</v>
       </c>
       <c r="N34" s="11">
-        <v>4118318</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7141388</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
@@ -1777,44 +1777,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>81233093</v>
+        <v>145608845</v>
       </c>
       <c r="F36" s="13">
-        <v>145608845</v>
+        <v>162997395</v>
       </c>
       <c r="G36" s="13">
-        <v>162997395</v>
+        <v>149249894</v>
       </c>
       <c r="H36" s="13">
-        <v>149249894</v>
+        <v>145752427</v>
       </c>
       <c r="I36" s="13">
-        <v>145752427</v>
+        <v>141950784</v>
       </c>
       <c r="J36" s="13">
-        <v>141950784</v>
+        <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>0</v>
+        <v>111479436</v>
       </c>
       <c r="L36" s="13">
-        <v>111479436</v>
+        <v>102338217</v>
       </c>
       <c r="M36" s="13">
-        <v>102338217</v>
+        <v>96495318</v>
       </c>
       <c r="N36" s="13">
-        <v>96495318</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117752110</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1829,7 +1829,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1844,7 +1844,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1859,7 +1859,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>40</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1911,7 +1911,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
@@ -1928,29 +1928,29 @@
       <c r="G42" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>31</v>
+      <c r="H42" s="9">
+        <v>161765944</v>
       </c>
       <c r="I42" s="9">
-        <v>161765944</v>
+        <v>45571361</v>
       </c>
       <c r="J42" s="9">
-        <v>45571361</v>
+        <v>120847903</v>
       </c>
       <c r="K42" s="9">
-        <v>120847903</v>
+        <v>78464644</v>
       </c>
       <c r="L42" s="9">
-        <v>78464644</v>
+        <v>114520834</v>
       </c>
       <c r="M42" s="9">
-        <v>114520834</v>
+        <v>145674241</v>
       </c>
       <c r="N42" s="9">
-        <v>145674241</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136814802</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
@@ -1959,37 +1959,37 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>7907113</v>
+        <v>5051666</v>
       </c>
       <c r="F43" s="11">
-        <v>5051666</v>
+        <v>8452790</v>
       </c>
       <c r="G43" s="11">
-        <v>8452790</v>
+        <v>6887900</v>
       </c>
       <c r="H43" s="11">
-        <v>6887900</v>
+        <v>-60663609</v>
       </c>
       <c r="I43" s="11">
-        <v>-60663609</v>
+        <v>3499109</v>
       </c>
       <c r="J43" s="11">
-        <v>3499109</v>
+        <v>4677294</v>
       </c>
       <c r="K43" s="11">
-        <v>4677294</v>
+        <v>70362</v>
       </c>
       <c r="L43" s="11">
-        <v>70362</v>
+        <v>2522783</v>
       </c>
       <c r="M43" s="11">
-        <v>2522783</v>
+        <v>3805763</v>
       </c>
       <c r="N43" s="11">
-        <v>3805763</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3116815</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
@@ -1998,17 +1998,17 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>139348423</v>
+        <v>139371941</v>
       </c>
       <c r="F44" s="9">
-        <v>139371941</v>
+        <v>116668600</v>
       </c>
       <c r="G44" s="9">
-        <v>116668600</v>
-      </c>
-      <c r="H44" s="9">
         <v>74671518</v>
       </c>
+      <c r="H44" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I44" s="9" t="s">
         <v>31</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>34</v>
       </c>
@@ -2037,17 +2037,17 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>21079003</v>
+        <v>7961742</v>
       </c>
       <c r="F45" s="11">
-        <v>7961742</v>
+        <v>42753</v>
       </c>
       <c r="G45" s="11">
-        <v>42753</v>
-      </c>
-      <c r="H45" s="11">
         <v>6248</v>
       </c>
+      <c r="H45" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I45" s="11" t="s">
         <v>31</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
@@ -2076,37 +2076,37 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>3087720</v>
+        <v>1502298</v>
       </c>
       <c r="F46" s="9">
-        <v>1502298</v>
+        <v>4912</v>
       </c>
       <c r="G46" s="9">
-        <v>4912</v>
+        <v>573</v>
       </c>
       <c r="H46" s="9">
-        <v>573</v>
+        <v>846043</v>
       </c>
       <c r="I46" s="9">
-        <v>846043</v>
+        <v>66664</v>
       </c>
       <c r="J46" s="9">
-        <v>66664</v>
+        <v>298607</v>
       </c>
       <c r="K46" s="9">
-        <v>298607</v>
+        <v>249694</v>
       </c>
       <c r="L46" s="9">
-        <v>249694</v>
+        <v>981960</v>
       </c>
       <c r="M46" s="9">
-        <v>981960</v>
+        <v>1904281</v>
       </c>
       <c r="N46" s="9">
-        <v>1904281</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>433906</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>38</v>
       </c>
@@ -2123,29 +2123,29 @@
       <c r="G47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>31</v>
+      <c r="H47" s="11">
+        <v>18957897</v>
       </c>
       <c r="I47" s="11">
-        <v>18957897</v>
+        <v>10940603</v>
       </c>
       <c r="J47" s="11">
-        <v>10940603</v>
+        <v>12572887</v>
       </c>
       <c r="K47" s="11">
-        <v>12572887</v>
+        <v>8601118</v>
       </c>
       <c r="L47" s="11">
-        <v>8601118</v>
+        <v>14682761</v>
       </c>
       <c r="M47" s="11">
-        <v>14682761</v>
+        <v>17997952</v>
       </c>
       <c r="N47" s="11">
-        <v>17997952</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16460708</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>39</v>
       </c>
@@ -2184,44 +2184,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>171422259</v>
+        <v>153887647</v>
       </c>
       <c r="F49" s="13">
-        <v>153887647</v>
+        <v>125169055</v>
       </c>
       <c r="G49" s="13">
-        <v>125169055</v>
+        <v>81566239</v>
       </c>
       <c r="H49" s="13">
-        <v>81566239</v>
+        <v>120906275</v>
       </c>
       <c r="I49" s="13">
-        <v>120906275</v>
+        <v>60077737</v>
       </c>
       <c r="J49" s="13">
-        <v>60077737</v>
+        <v>138396691</v>
       </c>
       <c r="K49" s="13">
-        <v>138396691</v>
+        <v>87385818</v>
       </c>
       <c r="L49" s="13">
-        <v>87385818</v>
+        <v>132708338</v>
       </c>
       <c r="M49" s="13">
-        <v>132708338</v>
+        <v>169382237</v>
       </c>
       <c r="N49" s="13">
-        <v>169382237</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>156826231</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2236,7 +2236,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2251,7 +2251,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2266,7 +2266,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>41</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2318,7 +2318,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>29</v>
       </c>
@@ -2335,29 +2335,29 @@
       <c r="G55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>31</v>
+      <c r="H55" s="9">
+        <v>179182180</v>
       </c>
       <c r="I55" s="9">
-        <v>179182180</v>
+        <v>63912307</v>
       </c>
       <c r="J55" s="9">
-        <v>63912307</v>
+        <v>130530996</v>
       </c>
       <c r="K55" s="9">
-        <v>130530996</v>
+        <v>83493504</v>
       </c>
       <c r="L55" s="9">
-        <v>83493504</v>
+        <v>119165312</v>
       </c>
       <c r="M55" s="9">
-        <v>119165312</v>
+        <v>128869353</v>
       </c>
       <c r="N55" s="9">
-        <v>128869353</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>135492787</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
@@ -2366,37 +2366,37 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>6861216</v>
+        <v>5238702</v>
       </c>
       <c r="F56" s="11">
-        <v>5238702</v>
+        <v>9470916</v>
       </c>
       <c r="G56" s="11">
-        <v>9470916</v>
+        <v>4048602</v>
       </c>
       <c r="H56" s="11">
-        <v>4048602</v>
+        <v>-53831766</v>
       </c>
       <c r="I56" s="11">
-        <v>-53831766</v>
+        <v>5276406</v>
       </c>
       <c r="J56" s="11">
-        <v>5276406</v>
+        <v>5095931</v>
       </c>
       <c r="K56" s="11">
-        <v>5095931</v>
+        <v>4113657</v>
       </c>
       <c r="L56" s="11">
-        <v>4113657</v>
+        <v>3298101</v>
       </c>
       <c r="M56" s="11">
-        <v>3298101</v>
+        <v>3256092</v>
       </c>
       <c r="N56" s="11">
-        <v>3256092</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4366530</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
@@ -2405,17 +2405,17 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>87268999</v>
+        <v>110545924</v>
       </c>
       <c r="F57" s="9">
-        <v>110545924</v>
+        <v>129405278</v>
       </c>
       <c r="G57" s="9">
-        <v>129405278</v>
-      </c>
-      <c r="H57" s="9">
         <v>63807857</v>
       </c>
+      <c r="H57" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I57" s="9" t="s">
         <v>31</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>34</v>
       </c>
@@ -2444,17 +2444,17 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>19216685</v>
+        <v>11275478</v>
       </c>
       <c r="F58" s="11">
-        <v>11275478</v>
+        <v>44750</v>
       </c>
       <c r="G58" s="11">
-        <v>44750</v>
-      </c>
-      <c r="H58" s="11">
         <v>6434</v>
       </c>
+      <c r="H58" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I58" s="11" t="s">
         <v>31</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
@@ -2483,37 +2483,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>2440269</v>
+        <v>894226</v>
       </c>
       <c r="F59" s="9">
-        <v>894226</v>
+        <v>4354</v>
       </c>
       <c r="G59" s="9">
-        <v>4354</v>
+        <v>543</v>
       </c>
       <c r="H59" s="9">
-        <v>543</v>
+        <v>1615373</v>
       </c>
       <c r="I59" s="9">
-        <v>1615373</v>
+        <v>616902</v>
       </c>
       <c r="J59" s="9">
-        <v>616902</v>
+        <v>933335</v>
       </c>
       <c r="K59" s="9">
-        <v>933335</v>
+        <v>552371</v>
       </c>
       <c r="L59" s="9">
-        <v>552371</v>
+        <v>992593</v>
       </c>
       <c r="M59" s="9">
-        <v>992593</v>
+        <v>1025118</v>
       </c>
       <c r="N59" s="9">
-        <v>1025118</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>986064</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>38</v>
       </c>
@@ -2530,29 +2530,29 @@
       <c r="G60" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>31</v>
+      <c r="H60" s="11">
+        <v>19398088</v>
       </c>
       <c r="I60" s="11">
-        <v>19398088</v>
+        <v>10106029</v>
       </c>
       <c r="J60" s="11">
-        <v>10106029</v>
+        <v>12473870</v>
       </c>
       <c r="K60" s="11">
-        <v>12473870</v>
+        <v>8367505</v>
       </c>
       <c r="L60" s="11">
-        <v>8367505</v>
+        <v>15095231</v>
       </c>
       <c r="M60" s="11">
-        <v>15095231</v>
+        <v>14974882</v>
       </c>
       <c r="N60" s="11">
-        <v>14974882</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17891558</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>39</v>
       </c>
@@ -2591,44 +2591,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>115787169</v>
+        <v>127954330</v>
       </c>
       <c r="F62" s="13">
-        <v>127954330</v>
+        <v>138925298</v>
       </c>
       <c r="G62" s="13">
-        <v>138925298</v>
+        <v>67863436</v>
       </c>
       <c r="H62" s="13">
-        <v>67863436</v>
+        <v>146363875</v>
       </c>
       <c r="I62" s="13">
-        <v>146363875</v>
+        <v>79911644</v>
       </c>
       <c r="J62" s="13">
-        <v>79911644</v>
+        <v>149034132</v>
       </c>
       <c r="K62" s="13">
-        <v>149034132</v>
+        <v>96527037</v>
       </c>
       <c r="L62" s="13">
-        <v>96527037</v>
+        <v>138551237</v>
       </c>
       <c r="M62" s="13">
-        <v>138551237</v>
+        <v>148125445</v>
       </c>
       <c r="N62" s="13">
-        <v>148125445</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158736939</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2643,7 +2643,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2658,7 +2658,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2673,7 +2673,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>42</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2725,7 +2725,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -2742,29 +2742,29 @@
       <c r="G68" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>31</v>
+      <c r="H68" s="9">
+        <v>117469002</v>
       </c>
       <c r="I68" s="9">
-        <v>117469002</v>
+        <v>99128056</v>
       </c>
       <c r="J68" s="9">
-        <v>99128056</v>
+        <v>89444963</v>
       </c>
       <c r="K68" s="9">
-        <v>89444963</v>
+        <v>84416103</v>
       </c>
       <c r="L68" s="9">
-        <v>84416103</v>
+        <v>79771625</v>
       </c>
       <c r="M68" s="9">
-        <v>79771625</v>
+        <v>96576513</v>
       </c>
       <c r="N68" s="9">
-        <v>96576513</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>97898528</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>32</v>
       </c>
@@ -2773,37 +2773,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>15562515</v>
+        <v>15375479</v>
       </c>
       <c r="F69" s="11">
-        <v>15375479</v>
+        <v>14357353</v>
       </c>
       <c r="G69" s="11">
-        <v>14357353</v>
+        <v>17196652</v>
       </c>
       <c r="H69" s="11">
-        <v>17196652</v>
+        <v>18389172</v>
       </c>
       <c r="I69" s="11">
-        <v>18389172</v>
+        <v>16611875</v>
       </c>
       <c r="J69" s="11">
-        <v>16611875</v>
+        <v>16193238</v>
       </c>
       <c r="K69" s="11">
-        <v>16193238</v>
+        <v>12149943</v>
       </c>
       <c r="L69" s="11">
-        <v>12149943</v>
+        <v>11374625</v>
       </c>
       <c r="M69" s="11">
-        <v>11374625</v>
+        <v>11924296</v>
       </c>
       <c r="N69" s="11">
-        <v>11924296</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10674581</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
@@ -2812,17 +2812,17 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>118795899</v>
+        <v>147621916</v>
       </c>
       <c r="F70" s="9">
-        <v>147621916</v>
+        <v>134885238</v>
       </c>
       <c r="G70" s="9">
-        <v>134885238</v>
-      </c>
-      <c r="H70" s="9">
         <v>145748899</v>
       </c>
+      <c r="H70" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I70" s="9" t="s">
         <v>31</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>34</v>
       </c>
@@ -2851,17 +2851,17 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>7662772</v>
+        <v>4349036</v>
       </c>
       <c r="F71" s="11">
-        <v>4349036</v>
+        <v>3803</v>
       </c>
       <c r="G71" s="11">
-        <v>3803</v>
-      </c>
-      <c r="H71" s="11">
         <v>3618</v>
       </c>
+      <c r="H71" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I71" s="11" t="s">
         <v>31</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
@@ -2890,37 +2890,37 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>3587659</v>
+        <v>4195731</v>
       </c>
       <c r="F72" s="9">
-        <v>4195731</v>
+        <v>3498</v>
       </c>
       <c r="G72" s="9">
-        <v>3498</v>
+        <v>3528</v>
       </c>
       <c r="H72" s="9">
-        <v>3528</v>
+        <v>2729026</v>
       </c>
       <c r="I72" s="9">
-        <v>2729026</v>
+        <v>2178788</v>
       </c>
       <c r="J72" s="9">
-        <v>2178788</v>
+        <v>1544060</v>
       </c>
       <c r="K72" s="9">
-        <v>1544060</v>
+        <v>1241383</v>
       </c>
       <c r="L72" s="9">
-        <v>1241383</v>
+        <v>1230750</v>
       </c>
       <c r="M72" s="9">
-        <v>1230750</v>
+        <v>2109913</v>
       </c>
       <c r="N72" s="9">
-        <v>2109913</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1557755</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>38</v>
       </c>
@@ -2937,29 +2937,29 @@
       <c r="G73" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>31</v>
+      <c r="H73" s="11">
+        <v>3363584</v>
       </c>
       <c r="I73" s="11">
-        <v>3363584</v>
+        <v>4198158</v>
       </c>
       <c r="J73" s="11">
-        <v>4198158</v>
+        <v>4297175</v>
       </c>
       <c r="K73" s="11">
-        <v>4297175</v>
+        <v>4530788</v>
       </c>
       <c r="L73" s="11">
-        <v>4530788</v>
+        <v>4118318</v>
       </c>
       <c r="M73" s="11">
-        <v>4118318</v>
+        <v>7141388</v>
       </c>
       <c r="N73" s="11">
-        <v>7141388</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5710538</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>39</v>
       </c>
@@ -2998,44 +2998,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>145608845</v>
+        <v>171542162</v>
       </c>
       <c r="F75" s="13">
-        <v>171542162</v>
+        <v>149249892</v>
       </c>
       <c r="G75" s="13">
-        <v>149249892</v>
+        <v>162952697</v>
       </c>
       <c r="H75" s="13">
-        <v>162952697</v>
+        <v>141950784</v>
       </c>
       <c r="I75" s="13">
-        <v>141950784</v>
+        <v>122116877</v>
       </c>
       <c r="J75" s="13">
-        <v>122116877</v>
+        <v>111479436</v>
       </c>
       <c r="K75" s="13">
-        <v>111479436</v>
+        <v>102338217</v>
       </c>
       <c r="L75" s="13">
-        <v>102338217</v>
+        <v>96495318</v>
       </c>
       <c r="M75" s="13">
-        <v>96495318</v>
+        <v>117752110</v>
       </c>
       <c r="N75" s="13">
-        <v>117752110</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>115841402</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3050,7 +3050,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3065,7 +3065,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3080,7 +3080,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>43</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3132,7 +3132,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -3152,26 +3152,26 @@
       <c r="H81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J81" s="9">
+      <c r="I81" s="9">
         <v>800899</v>
       </c>
-      <c r="K81" s="9" t="s">
-        <v>31</v>
+      <c r="J81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="9">
+        <v>675721</v>
       </c>
       <c r="L81" s="9">
-        <v>675721</v>
+        <v>766886</v>
       </c>
       <c r="M81" s="9">
-        <v>766886</v>
+        <v>747025</v>
       </c>
       <c r="N81" s="9">
-        <v>747025</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>890717</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
@@ -3180,37 +3180,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>92808</v>
+        <v>93096</v>
       </c>
       <c r="F82" s="11">
-        <v>93096</v>
+        <v>209305</v>
       </c>
       <c r="G82" s="11">
-        <v>209305</v>
+        <v>341262</v>
       </c>
       <c r="H82" s="11">
-        <v>341262</v>
+        <v>890965</v>
       </c>
       <c r="I82" s="11">
-        <v>890965</v>
-      </c>
-      <c r="J82" s="11">
         <v>490845</v>
       </c>
-      <c r="K82" s="11" t="s">
-        <v>31</v>
+      <c r="J82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="11">
+        <v>373617</v>
       </c>
       <c r="L82" s="11">
-        <v>373617</v>
+        <v>353618</v>
       </c>
       <c r="M82" s="11">
-        <v>353618</v>
+        <v>258638</v>
       </c>
       <c r="N82" s="11">
-        <v>258638</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>236478</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>33</v>
       </c>
@@ -3219,17 +3219,17 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>280877</v>
+        <v>493301</v>
       </c>
       <c r="F83" s="9">
-        <v>493301</v>
+        <v>797288</v>
       </c>
       <c r="G83" s="9">
-        <v>797288</v>
-      </c>
-      <c r="H83" s="9">
         <v>744961</v>
       </c>
+      <c r="H83" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I83" s="9" t="s">
         <v>31</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>34</v>
       </c>
@@ -3258,17 +3258,17 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>329881</v>
+        <v>554475</v>
       </c>
       <c r="F84" s="11">
-        <v>554475</v>
+        <v>599241</v>
       </c>
       <c r="G84" s="11">
-        <v>599241</v>
-      </c>
-      <c r="H84" s="11">
         <v>650646</v>
       </c>
+      <c r="H84" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I84" s="11" t="s">
         <v>31</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>36</v>
       </c>
@@ -3297,37 +3297,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>857194</v>
+        <v>975224</v>
       </c>
       <c r="F85" s="9">
-        <v>975224</v>
+        <v>1801140</v>
       </c>
       <c r="G85" s="9">
-        <v>1801140</v>
+        <v>1950672</v>
       </c>
       <c r="H85" s="9">
-        <v>1950672</v>
+        <v>2409229</v>
       </c>
       <c r="I85" s="9">
-        <v>2409229</v>
-      </c>
-      <c r="J85" s="9">
         <v>2078633</v>
       </c>
-      <c r="K85" s="9" t="s">
-        <v>31</v>
+      <c r="J85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="9">
+        <v>1650374</v>
       </c>
       <c r="L85" s="9">
-        <v>1650374</v>
+        <v>1404795</v>
       </c>
       <c r="M85" s="9">
-        <v>1404795</v>
+        <v>1432135</v>
       </c>
       <c r="N85" s="9">
-        <v>1432135</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1690020</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>38</v>
       </c>
@@ -3347,26 +3347,26 @@
       <c r="H86" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I86" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J86" s="11">
+      <c r="I86" s="11">
         <v>627953</v>
       </c>
-      <c r="K86" s="11" t="s">
-        <v>31</v>
+      <c r="J86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="11">
+        <v>917125</v>
       </c>
       <c r="L86" s="11">
-        <v>917125</v>
+        <v>830582</v>
       </c>
       <c r="M86" s="11">
-        <v>830582</v>
+        <v>876374</v>
       </c>
       <c r="N86" s="11">
-        <v>876374</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1016035</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>39</v>
       </c>
@@ -3405,44 +3405,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>1560760</v>
+        <v>2116096</v>
       </c>
       <c r="F88" s="13">
-        <v>2116096</v>
+        <v>3406974</v>
       </c>
       <c r="G88" s="13">
-        <v>3406974</v>
+        <v>3687541</v>
       </c>
       <c r="H88" s="13">
-        <v>3687541</v>
+        <v>3300194</v>
       </c>
       <c r="I88" s="13">
-        <v>3300194</v>
+        <v>3998330</v>
       </c>
       <c r="J88" s="13">
-        <v>3998330</v>
+        <v>0</v>
       </c>
       <c r="K88" s="13">
-        <v>0</v>
+        <v>3616837</v>
       </c>
       <c r="L88" s="13">
-        <v>3616837</v>
+        <v>3355881</v>
       </c>
       <c r="M88" s="13">
-        <v>3355881</v>
+        <v>3314172</v>
       </c>
       <c r="N88" s="13">
-        <v>3314172</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3833250</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3457,7 +3457,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3472,7 +3472,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3487,7 +3487,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>45</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3539,7 +3539,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>29</v>
       </c>
@@ -3556,29 +3556,29 @@
       <c r="G94" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H94" s="9" t="s">
-        <v>31</v>
+      <c r="H94" s="9">
+        <v>2539266</v>
       </c>
       <c r="I94" s="9">
-        <v>2539266</v>
+        <v>1209961</v>
       </c>
       <c r="J94" s="9">
-        <v>1209961</v>
+        <v>1602041</v>
       </c>
       <c r="K94" s="9">
-        <v>1602041</v>
+        <v>1497986</v>
       </c>
       <c r="L94" s="9">
-        <v>1497986</v>
+        <v>2161296</v>
       </c>
       <c r="M94" s="9">
-        <v>2161296</v>
+        <v>2411169</v>
       </c>
       <c r="N94" s="9">
-        <v>2411169</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2739137</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>32</v>
       </c>
@@ -3587,37 +3587,37 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>53004</v>
+        <v>173460</v>
       </c>
       <c r="F95" s="11">
-        <v>173460</v>
+        <v>345438</v>
       </c>
       <c r="G95" s="11">
-        <v>345438</v>
+        <v>181860</v>
       </c>
       <c r="H95" s="11">
-        <v>181860</v>
+        <v>-597962</v>
       </c>
       <c r="I95" s="11">
-        <v>-597962</v>
+        <v>22156</v>
       </c>
       <c r="J95" s="11">
-        <v>22156</v>
+        <v>91660</v>
       </c>
       <c r="K95" s="11">
-        <v>91660</v>
+        <v>74130</v>
       </c>
       <c r="L95" s="11">
-        <v>74130</v>
+        <v>661</v>
       </c>
       <c r="M95" s="11">
-        <v>661</v>
+        <v>81136</v>
       </c>
       <c r="N95" s="11">
-        <v>81136</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>145968</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>33</v>
       </c>
@@ -3626,17 +3626,17 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>948179</v>
+        <v>1422370</v>
       </c>
       <c r="F96" s="9">
-        <v>1422370</v>
+        <v>1522925</v>
       </c>
       <c r="G96" s="9">
-        <v>1522925</v>
-      </c>
-      <c r="H96" s="9">
         <v>1018907</v>
       </c>
+      <c r="H96" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I96" s="9" t="s">
         <v>31</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>34</v>
       </c>
@@ -3665,17 +3665,17 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>1077676</v>
+        <v>1463155</v>
       </c>
       <c r="F97" s="11">
-        <v>1463155</v>
+        <v>2111848</v>
       </c>
       <c r="G97" s="11">
-        <v>2111848</v>
-      </c>
-      <c r="H97" s="11">
         <v>903445</v>
       </c>
+      <c r="H97" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I97" s="11" t="s">
         <v>31</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>36</v>
       </c>
@@ -3704,37 +3704,37 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>589413</v>
+        <v>1417542</v>
       </c>
       <c r="F98" s="9">
-        <v>1417542</v>
+        <v>883139</v>
       </c>
       <c r="G98" s="9">
-        <v>883139</v>
+        <v>886500</v>
       </c>
       <c r="H98" s="9">
-        <v>886500</v>
+        <v>432465</v>
       </c>
       <c r="I98" s="9">
-        <v>432465</v>
+        <v>377246</v>
       </c>
       <c r="J98" s="9">
-        <v>377246</v>
+        <v>450588</v>
       </c>
       <c r="K98" s="9">
-        <v>450588</v>
+        <v>315154</v>
       </c>
       <c r="L98" s="9">
-        <v>315154</v>
+        <v>918418</v>
       </c>
       <c r="M98" s="9">
-        <v>918418</v>
+        <v>1549964</v>
       </c>
       <c r="N98" s="9">
-        <v>1549964</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1642564</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>38</v>
       </c>
@@ -3751,29 +3751,29 @@
       <c r="G99" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>31</v>
+      <c r="H99" s="11">
+        <v>3337689</v>
       </c>
       <c r="I99" s="11">
-        <v>3337689</v>
+        <v>2095597</v>
       </c>
       <c r="J99" s="11">
-        <v>2095597</v>
+        <v>2242723</v>
       </c>
       <c r="K99" s="11">
-        <v>2242723</v>
+        <v>1989322</v>
       </c>
       <c r="L99" s="11">
-        <v>1989322</v>
+        <v>2962428</v>
       </c>
       <c r="M99" s="11">
-        <v>2962428</v>
+        <v>3025460</v>
       </c>
       <c r="N99" s="11">
-        <v>3025460</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3231914</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>39</v>
       </c>
@@ -3812,44 +3812,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>2668272</v>
+        <v>4476527</v>
       </c>
       <c r="F101" s="13">
-        <v>4476527</v>
+        <v>4863350</v>
       </c>
       <c r="G101" s="13">
-        <v>4863350</v>
+        <v>2990712</v>
       </c>
       <c r="H101" s="13">
-        <v>2990712</v>
+        <v>5711458</v>
       </c>
       <c r="I101" s="13">
-        <v>5711458</v>
+        <v>3704960</v>
       </c>
       <c r="J101" s="13">
-        <v>3704960</v>
+        <v>4387012</v>
       </c>
       <c r="K101" s="13">
-        <v>4387012</v>
+        <v>3876592</v>
       </c>
       <c r="L101" s="13">
-        <v>3876592</v>
+        <v>6042803</v>
       </c>
       <c r="M101" s="13">
-        <v>6042803</v>
+        <v>7067729</v>
       </c>
       <c r="N101" s="13">
-        <v>7067729</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7759583</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3864,7 +3864,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3879,7 +3879,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3894,7 +3894,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>46</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3946,7 +3946,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>29</v>
       </c>
@@ -3963,29 +3963,29 @@
       <c r="G107" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H107" s="9" t="s">
-        <v>31</v>
+      <c r="H107" s="9">
+        <v>2482279</v>
       </c>
       <c r="I107" s="9">
-        <v>2482279</v>
+        <v>1291747</v>
       </c>
       <c r="J107" s="9">
-        <v>1291747</v>
+        <v>1646481</v>
       </c>
       <c r="K107" s="9">
-        <v>1646481</v>
+        <v>1406821</v>
       </c>
       <c r="L107" s="9">
-        <v>1406821</v>
+        <v>2181157</v>
       </c>
       <c r="M107" s="9">
-        <v>2181157</v>
+        <v>2267477</v>
       </c>
       <c r="N107" s="9">
-        <v>2267477</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2593261</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
@@ -3994,37 +3994,37 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>52715</v>
+        <v>57251</v>
       </c>
       <c r="F108" s="11">
-        <v>57251</v>
+        <v>212046</v>
       </c>
       <c r="G108" s="11">
-        <v>212046</v>
+        <v>98067</v>
       </c>
       <c r="H108" s="11">
-        <v>98067</v>
+        <v>-601507</v>
       </c>
       <c r="I108" s="11">
-        <v>-601507</v>
+        <v>112064</v>
       </c>
       <c r="J108" s="11">
-        <v>112064</v>
+        <v>118946</v>
       </c>
       <c r="K108" s="11">
-        <v>118946</v>
+        <v>94129</v>
       </c>
       <c r="L108" s="11">
-        <v>94129</v>
+        <v>95641</v>
       </c>
       <c r="M108" s="11">
-        <v>95641</v>
+        <v>103296</v>
       </c>
       <c r="N108" s="11">
-        <v>103296</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116310</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>33</v>
       </c>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>735755</v>
+        <v>1118383</v>
       </c>
       <c r="F109" s="9">
-        <v>1118383</v>
+        <v>1561226</v>
       </c>
       <c r="G109" s="9">
-        <v>1561226</v>
-      </c>
-      <c r="H109" s="9">
         <v>872903</v>
       </c>
+      <c r="H109" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I109" s="9" t="s">
         <v>31</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>34</v>
       </c>
@@ -4072,17 +4072,17 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>853082</v>
+        <v>1418389</v>
       </c>
       <c r="F110" s="11">
-        <v>1418389</v>
+        <v>2058604</v>
       </c>
       <c r="G110" s="11">
-        <v>2058604</v>
-      </c>
-      <c r="H110" s="11">
         <v>958575</v>
       </c>
+      <c r="H110" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I110" s="11" t="s">
         <v>31</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>36</v>
       </c>
@@ -4111,37 +4111,37 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>471383</v>
+        <v>591626</v>
       </c>
       <c r="F111" s="9">
-        <v>591626</v>
+        <v>741462</v>
       </c>
       <c r="G111" s="9">
-        <v>741462</v>
+        <v>427943</v>
       </c>
       <c r="H111" s="9">
-        <v>427943</v>
+        <v>768708</v>
       </c>
       <c r="I111" s="9">
-        <v>768708</v>
+        <v>538819</v>
       </c>
       <c r="J111" s="9">
-        <v>538819</v>
+        <v>711627</v>
       </c>
       <c r="K111" s="9">
-        <v>711627</v>
+        <v>560733</v>
       </c>
       <c r="L111" s="9">
-        <v>560733</v>
+        <v>891078</v>
       </c>
       <c r="M111" s="9">
-        <v>891078</v>
+        <v>1292079</v>
       </c>
       <c r="N111" s="9">
-        <v>1292079</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1141163</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>38</v>
       </c>
@@ -4158,29 +4158,29 @@
       <c r="G112" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>31</v>
+      <c r="H112" s="11">
+        <v>3320991</v>
       </c>
       <c r="I112" s="11">
-        <v>3320991</v>
+        <v>1958835</v>
       </c>
       <c r="J112" s="11">
-        <v>1958835</v>
+        <v>2129704</v>
       </c>
       <c r="K112" s="11">
-        <v>2129704</v>
+        <v>2075865</v>
       </c>
       <c r="L112" s="11">
-        <v>2075865</v>
+        <v>2916636</v>
       </c>
       <c r="M112" s="11">
-        <v>2916636</v>
+        <v>2885799</v>
       </c>
       <c r="N112" s="11">
-        <v>2885799</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3240420</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>39</v>
       </c>
@@ -4219,44 +4219,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>2112935</v>
+        <v>3185649</v>
       </c>
       <c r="F114" s="13">
-        <v>3185649</v>
+        <v>4573338</v>
       </c>
       <c r="G114" s="13">
-        <v>4573338</v>
+        <v>2357488</v>
       </c>
       <c r="H114" s="13">
-        <v>2357488</v>
+        <v>5970471</v>
       </c>
       <c r="I114" s="13">
-        <v>5970471</v>
+        <v>3901465</v>
       </c>
       <c r="J114" s="13">
-        <v>3901465</v>
+        <v>4606758</v>
       </c>
       <c r="K114" s="13">
-        <v>4606758</v>
+        <v>4137548</v>
       </c>
       <c r="L114" s="13">
-        <v>4137548</v>
+        <v>6084512</v>
       </c>
       <c r="M114" s="13">
-        <v>6084512</v>
+        <v>6548651</v>
       </c>
       <c r="N114" s="13">
-        <v>6548651</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7091154</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4271,7 +4271,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4286,7 +4286,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4301,7 +4301,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>47</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4353,7 +4353,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>29</v>
       </c>
@@ -4370,29 +4370,29 @@
       <c r="G120" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>31</v>
+      <c r="H120" s="9">
+        <v>801948</v>
       </c>
       <c r="I120" s="9">
-        <v>801948</v>
+        <v>720162</v>
       </c>
       <c r="J120" s="9">
-        <v>720162</v>
+        <v>675722</v>
       </c>
       <c r="K120" s="9">
-        <v>675722</v>
+        <v>766886</v>
       </c>
       <c r="L120" s="9">
-        <v>766886</v>
+        <v>747025</v>
       </c>
       <c r="M120" s="9">
-        <v>747025</v>
+        <v>890717</v>
       </c>
       <c r="N120" s="9">
-        <v>890717</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1036593</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>32</v>
       </c>
@@ -4401,37 +4401,37 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>93096</v>
+        <v>209305</v>
       </c>
       <c r="F121" s="11">
-        <v>209305</v>
+        <v>342697</v>
       </c>
       <c r="G121" s="11">
-        <v>342697</v>
+        <v>425055</v>
       </c>
       <c r="H121" s="11">
-        <v>425055</v>
+        <v>490811</v>
       </c>
       <c r="I121" s="11">
-        <v>490811</v>
+        <v>400903</v>
       </c>
       <c r="J121" s="11">
-        <v>400903</v>
+        <v>373617</v>
       </c>
       <c r="K121" s="11">
-        <v>373617</v>
+        <v>353618</v>
       </c>
       <c r="L121" s="11">
-        <v>353618</v>
+        <v>258638</v>
       </c>
       <c r="M121" s="11">
-        <v>258638</v>
+        <v>236478</v>
       </c>
       <c r="N121" s="11">
-        <v>236478</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>266136</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>33</v>
       </c>
@@ -4440,17 +4440,17 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
-        <v>493301</v>
+        <v>797288</v>
       </c>
       <c r="F122" s="9">
-        <v>797288</v>
+        <v>758987</v>
       </c>
       <c r="G122" s="9">
-        <v>758987</v>
-      </c>
-      <c r="H122" s="9">
         <v>890965</v>
       </c>
+      <c r="H122" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I122" s="9" t="s">
         <v>31</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>34</v>
       </c>
@@ -4479,17 +4479,17 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>554475</v>
+        <v>599241</v>
       </c>
       <c r="F123" s="11">
-        <v>599241</v>
+        <v>652485</v>
       </c>
       <c r="G123" s="11">
-        <v>652485</v>
-      </c>
-      <c r="H123" s="11">
         <v>595516</v>
       </c>
+      <c r="H123" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I123" s="11" t="s">
         <v>31</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>36</v>
       </c>
@@ -4518,37 +4518,37 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
-        <v>975224</v>
+        <v>1801140</v>
       </c>
       <c r="F124" s="9">
-        <v>1801140</v>
+        <v>1942817</v>
       </c>
       <c r="G124" s="9">
-        <v>1942817</v>
+        <v>2409229</v>
       </c>
       <c r="H124" s="9">
-        <v>2409229</v>
+        <v>2072986</v>
       </c>
       <c r="I124" s="9">
-        <v>2072986</v>
+        <v>1911413</v>
       </c>
       <c r="J124" s="9">
-        <v>1911413</v>
+        <v>1650374</v>
       </c>
       <c r="K124" s="9">
-        <v>1650374</v>
+        <v>1404795</v>
       </c>
       <c r="L124" s="9">
-        <v>1404795</v>
+        <v>1432135</v>
       </c>
       <c r="M124" s="9">
-        <v>1432135</v>
+        <v>1690020</v>
       </c>
       <c r="N124" s="9">
-        <v>1690020</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2191421</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>38</v>
       </c>
@@ -4565,29 +4565,29 @@
       <c r="G125" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>31</v>
+      <c r="H125" s="11">
+        <v>667344</v>
       </c>
       <c r="I125" s="11">
-        <v>667344</v>
+        <v>804106</v>
       </c>
       <c r="J125" s="11">
-        <v>804106</v>
+        <v>917125</v>
       </c>
       <c r="K125" s="11">
-        <v>917125</v>
+        <v>830582</v>
       </c>
       <c r="L125" s="11">
-        <v>830582</v>
+        <v>876374</v>
       </c>
       <c r="M125" s="11">
-        <v>876374</v>
+        <v>1016035</v>
       </c>
       <c r="N125" s="11">
-        <v>1016035</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1007529</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>39</v>
       </c>
@@ -4626,44 +4626,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>2116096</v>
+        <v>3406974</v>
       </c>
       <c r="F127" s="13">
-        <v>3406974</v>
+        <v>3696986</v>
       </c>
       <c r="G127" s="13">
-        <v>3696986</v>
+        <v>4320765</v>
       </c>
       <c r="H127" s="13">
-        <v>4320765</v>
+        <v>4033089</v>
       </c>
       <c r="I127" s="13">
-        <v>4033089</v>
+        <v>3836584</v>
       </c>
       <c r="J127" s="13">
-        <v>3836584</v>
+        <v>3616838</v>
       </c>
       <c r="K127" s="13">
-        <v>3616838</v>
+        <v>3355881</v>
       </c>
       <c r="L127" s="13">
-        <v>3355881</v>
+        <v>3314172</v>
       </c>
       <c r="M127" s="13">
-        <v>3314172</v>
+        <v>3833250</v>
       </c>
       <c r="N127" s="13">
-        <v>3833250</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4501679</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4678,7 +4678,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4693,7 +4693,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4708,7 +4708,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>48</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4760,7 +4760,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>29</v>
       </c>
@@ -4780,26 +4780,26 @@
       <c r="H133" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I133" s="9" t="s">
-        <v>31</v>
+      <c r="I133" s="9">
+        <v>6827</v>
       </c>
       <c r="J133" s="9">
-        <v>6827</v>
+        <v>7265</v>
       </c>
       <c r="K133" s="9">
-        <v>7265</v>
+        <v>7555</v>
       </c>
       <c r="L133" s="9">
-        <v>7555</v>
+        <v>9085</v>
       </c>
       <c r="M133" s="9">
-        <v>9085</v>
+        <v>9365</v>
       </c>
       <c r="N133" s="9">
-        <v>9365</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9223</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>32</v>
       </c>
@@ -4808,37 +4808,37 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>6393</v>
+        <v>5982</v>
       </c>
       <c r="F134" s="11">
-        <v>5982</v>
+        <v>13613</v>
       </c>
       <c r="G134" s="11">
-        <v>13613</v>
+        <v>23769</v>
       </c>
       <c r="H134" s="11">
-        <v>23769</v>
+        <v>6113</v>
       </c>
       <c r="I134" s="11">
-        <v>6113</v>
+        <v>26690</v>
       </c>
       <c r="J134" s="11">
-        <v>26690</v>
+        <v>24134</v>
       </c>
       <c r="K134" s="11">
-        <v>24134</v>
+        <v>23072</v>
       </c>
       <c r="L134" s="11">
-        <v>23072</v>
+        <v>29105</v>
       </c>
       <c r="M134" s="11">
-        <v>29105</v>
+        <v>22738</v>
       </c>
       <c r="N134" s="11">
-        <v>22738</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19832</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>33</v>
       </c>
@@ -4847,17 +4847,17 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>4210</v>
+        <v>4153</v>
       </c>
       <c r="F135" s="9">
-        <v>4153</v>
+        <v>5401</v>
       </c>
       <c r="G135" s="9">
-        <v>5401</v>
-      </c>
-      <c r="H135" s="9">
         <v>5523</v>
       </c>
+      <c r="H135" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I135" s="9" t="s">
         <v>31</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>34</v>
       </c>
@@ -4885,18 +4885,18 @@
         <v>50</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F136" s="11">
+      <c r="E136" s="11">
         <v>72360</v>
       </c>
-      <c r="G136" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H136" s="11">
+      <c r="F136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="11">
         <v>171042587</v>
       </c>
+      <c r="H136" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I136" s="11" t="s">
         <v>31</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>36</v>
       </c>
@@ -4924,38 +4924,38 @@
         <v>51</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F137" s="9">
+      <c r="E137" s="9">
         <v>271827</v>
       </c>
-      <c r="G137" s="9" t="s">
-        <v>31</v>
+      <c r="F137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="9">
+        <v>557653516</v>
       </c>
       <c r="H137" s="9">
-        <v>557653516</v>
+        <v>682888039</v>
       </c>
       <c r="I137" s="9">
-        <v>682888039</v>
+        <v>759607</v>
       </c>
       <c r="J137" s="9">
-        <v>759607</v>
+        <v>877283</v>
       </c>
       <c r="K137" s="9">
-        <v>877283</v>
+        <v>1068854</v>
       </c>
       <c r="L137" s="9">
-        <v>1068854</v>
+        <v>1131637</v>
       </c>
       <c r="M137" s="9">
-        <v>1131637</v>
+        <v>1163628</v>
       </c>
       <c r="N137" s="9">
-        <v>1163628</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>800990</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>38</v>
       </c>
@@ -4975,26 +4975,26 @@
       <c r="H138" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I138" s="11" t="s">
-        <v>31</v>
+      <c r="I138" s="11">
+        <v>198403</v>
       </c>
       <c r="J138" s="11">
-        <v>198403</v>
+        <v>191538</v>
       </c>
       <c r="K138" s="11">
-        <v>191538</v>
+        <v>213425</v>
       </c>
       <c r="L138" s="11">
-        <v>213425</v>
+        <v>183320</v>
       </c>
       <c r="M138" s="11">
-        <v>183320</v>
+        <v>212799</v>
       </c>
       <c r="N138" s="11">
-        <v>212799</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>142274</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5009,7 +5009,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5024,7 +5024,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5039,7 +5039,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>52</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5091,7 +5091,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>29</v>
       </c>
@@ -5108,29 +5108,29 @@
       <c r="G144" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H144" s="9" t="s">
-        <v>31</v>
+      <c r="H144" s="9">
+        <v>15697</v>
       </c>
       <c r="I144" s="9">
-        <v>15697</v>
+        <v>26551</v>
       </c>
       <c r="J144" s="9">
-        <v>26551</v>
+        <v>13257</v>
       </c>
       <c r="K144" s="9">
-        <v>13257</v>
+        <v>19091</v>
       </c>
       <c r="L144" s="9">
-        <v>19091</v>
+        <v>18873</v>
       </c>
       <c r="M144" s="9">
-        <v>18873</v>
+        <v>16552</v>
       </c>
       <c r="N144" s="9">
-        <v>16552</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>32</v>
       </c>
@@ -5139,37 +5139,37 @@
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11">
-        <v>6703</v>
+        <v>34337</v>
       </c>
       <c r="F145" s="11">
-        <v>34337</v>
+        <v>40867</v>
       </c>
       <c r="G145" s="11">
-        <v>40867</v>
+        <v>26403</v>
       </c>
       <c r="H145" s="11">
-        <v>26403</v>
+        <v>9857</v>
       </c>
       <c r="I145" s="11">
-        <v>9857</v>
+        <v>6332</v>
       </c>
       <c r="J145" s="11">
-        <v>6332</v>
+        <v>19597</v>
       </c>
       <c r="K145" s="11">
-        <v>19597</v>
+        <v>1053552</v>
       </c>
       <c r="L145" s="11">
-        <v>1053552</v>
+        <v>262</v>
       </c>
       <c r="M145" s="11">
-        <v>262</v>
+        <v>21319</v>
       </c>
       <c r="N145" s="11">
-        <v>21319</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46832</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>33</v>
       </c>
@@ -5178,17 +5178,17 @@
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9">
-        <v>6804</v>
+        <v>10206</v>
       </c>
       <c r="F146" s="9">
-        <v>10206</v>
+        <v>13053</v>
       </c>
       <c r="G146" s="9">
-        <v>13053</v>
-      </c>
-      <c r="H146" s="9">
         <v>13645</v>
       </c>
+      <c r="H146" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I146" s="9" t="s">
         <v>31</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>34</v>
       </c>
@@ -5217,17 +5217,17 @@
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
-        <v>51126</v>
+        <v>183773</v>
       </c>
       <c r="F147" s="11">
-        <v>183773</v>
+        <v>49396487</v>
       </c>
       <c r="G147" s="11">
-        <v>49396487</v>
-      </c>
-      <c r="H147" s="11">
         <v>144597471</v>
       </c>
+      <c r="H147" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I147" s="11" t="s">
         <v>31</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>36</v>
       </c>
@@ -5256,37 +5256,37 @@
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
-        <v>190889</v>
+        <v>943582</v>
       </c>
       <c r="F148" s="9">
-        <v>943582</v>
+        <v>179792142</v>
       </c>
       <c r="G148" s="9">
-        <v>179792142</v>
+        <v>1547120419</v>
       </c>
       <c r="H148" s="9">
-        <v>1547120419</v>
+        <v>511162</v>
       </c>
       <c r="I148" s="9">
-        <v>511162</v>
+        <v>5658916</v>
       </c>
       <c r="J148" s="9">
-        <v>5658916</v>
+        <v>1508967</v>
       </c>
       <c r="K148" s="9">
-        <v>1508967</v>
+        <v>1262161</v>
       </c>
       <c r="L148" s="9">
-        <v>1262161</v>
+        <v>935291</v>
       </c>
       <c r="M148" s="9">
-        <v>935291</v>
+        <v>813937</v>
       </c>
       <c r="N148" s="9">
-        <v>813937</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3785530</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>38</v>
       </c>
@@ -5303,29 +5303,29 @@
       <c r="G149" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H149" s="11" t="s">
-        <v>31</v>
+      <c r="H149" s="11">
+        <v>176058</v>
       </c>
       <c r="I149" s="11">
-        <v>176058</v>
+        <v>191543</v>
       </c>
       <c r="J149" s="11">
-        <v>191543</v>
+        <v>178378</v>
       </c>
       <c r="K149" s="11">
-        <v>178378</v>
+        <v>231286</v>
       </c>
       <c r="L149" s="11">
-        <v>231286</v>
+        <v>201762</v>
       </c>
       <c r="M149" s="11">
-        <v>201762</v>
+        <v>168100</v>
       </c>
       <c r="N149" s="11">
-        <v>168100</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>196341</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>39</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5379,7 +5379,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5394,7 +5394,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5409,7 +5409,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>53</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5461,7 +5461,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>29</v>
       </c>
@@ -5478,29 +5478,29 @@
       <c r="G156" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H156" s="9" t="s">
-        <v>31</v>
+      <c r="H156" s="9">
+        <v>13853</v>
       </c>
       <c r="I156" s="9">
-        <v>13853</v>
+        <v>20211</v>
       </c>
       <c r="J156" s="9">
-        <v>20211</v>
+        <v>12614</v>
       </c>
       <c r="K156" s="9">
-        <v>12614</v>
+        <v>16849</v>
       </c>
       <c r="L156" s="9">
-        <v>16849</v>
+        <v>18304</v>
       </c>
       <c r="M156" s="9">
-        <v>18304</v>
+        <v>17595</v>
       </c>
       <c r="N156" s="9">
-        <v>17595</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19139</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>32</v>
       </c>
@@ -5509,37 +5509,37 @@
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
-        <v>7683</v>
+        <v>10928</v>
       </c>
       <c r="F157" s="11">
-        <v>10928</v>
+        <v>22389</v>
       </c>
       <c r="G157" s="11">
-        <v>22389</v>
+        <v>24222</v>
       </c>
       <c r="H157" s="11">
-        <v>24222</v>
+        <v>11174</v>
       </c>
       <c r="I157" s="11">
-        <v>11174</v>
+        <v>21239</v>
       </c>
       <c r="J157" s="11">
-        <v>21239</v>
+        <v>23341</v>
       </c>
       <c r="K157" s="11">
-        <v>23341</v>
+        <v>22882</v>
       </c>
       <c r="L157" s="11">
-        <v>22882</v>
+        <v>28999</v>
       </c>
       <c r="M157" s="11">
-        <v>28999</v>
+        <v>31724</v>
       </c>
       <c r="N157" s="11">
-        <v>31724</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26637</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>33</v>
       </c>
@@ -5548,17 +5548,17 @@
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
-        <v>8431</v>
+        <v>10117</v>
       </c>
       <c r="F158" s="9">
-        <v>10117</v>
+        <v>12065</v>
       </c>
       <c r="G158" s="9">
-        <v>12065</v>
-      </c>
-      <c r="H158" s="9">
         <v>13680</v>
       </c>
+      <c r="H158" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I158" s="9" t="s">
         <v>31</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>34</v>
       </c>
@@ -5587,17 +5587,17 @@
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11">
-        <v>44393</v>
+        <v>125794</v>
       </c>
       <c r="F159" s="11">
-        <v>125794</v>
+        <v>46002324</v>
       </c>
       <c r="G159" s="11">
-        <v>46002324</v>
-      </c>
-      <c r="H159" s="11">
         <v>148985856</v>
       </c>
+      <c r="H159" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I159" s="11" t="s">
         <v>31</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>36</v>
       </c>
@@ -5626,37 +5626,37 @@
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
-        <v>193168</v>
+        <v>661607</v>
       </c>
       <c r="F160" s="9">
-        <v>661607</v>
+        <v>170294442</v>
       </c>
       <c r="G160" s="9">
-        <v>170294442</v>
+        <v>788108656</v>
       </c>
       <c r="H160" s="9">
-        <v>788108656</v>
+        <v>475870</v>
       </c>
       <c r="I160" s="9">
-        <v>475870</v>
+        <v>873427</v>
       </c>
       <c r="J160" s="9">
-        <v>873427</v>
+        <v>762456</v>
       </c>
       <c r="K160" s="9">
-        <v>762456</v>
+        <v>1015138</v>
       </c>
       <c r="L160" s="9">
-        <v>1015138</v>
+        <v>897727</v>
       </c>
       <c r="M160" s="9">
-        <v>897727</v>
+        <v>1260420</v>
       </c>
       <c r="N160" s="9">
-        <v>1260420</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1157291</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>38</v>
       </c>
@@ -5673,29 +5673,29 @@
       <c r="G161" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H161" s="11" t="s">
-        <v>31</v>
+      <c r="H161" s="11">
+        <v>171202</v>
       </c>
       <c r="I161" s="11">
-        <v>171202</v>
+        <v>193828</v>
       </c>
       <c r="J161" s="11">
-        <v>193828</v>
+        <v>170733</v>
       </c>
       <c r="K161" s="11">
-        <v>170733</v>
+        <v>248087</v>
       </c>
       <c r="L161" s="11">
-        <v>248087</v>
+        <v>193216</v>
       </c>
       <c r="M161" s="11">
-        <v>193216</v>
+        <v>192709</v>
       </c>
       <c r="N161" s="11">
-        <v>192709</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>181114</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>39</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5749,7 +5749,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5764,7 +5764,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5779,7 +5779,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
         <v>54</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5831,7 +5831,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>29</v>
       </c>
@@ -5848,29 +5848,29 @@
       <c r="G168" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H168" s="9" t="s">
-        <v>31</v>
+      <c r="H168" s="9">
+        <v>6827</v>
       </c>
       <c r="I168" s="9">
-        <v>6827</v>
+        <v>7265</v>
       </c>
       <c r="J168" s="9">
-        <v>7265</v>
+        <v>7555</v>
       </c>
       <c r="K168" s="9">
-        <v>7555</v>
+        <v>9085</v>
       </c>
       <c r="L168" s="9">
-        <v>9085</v>
+        <v>9365</v>
       </c>
       <c r="M168" s="9">
-        <v>9365</v>
+        <v>9223</v>
       </c>
       <c r="N168" s="9">
-        <v>9223</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10588</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>32</v>
       </c>
@@ -5887,29 +5887,29 @@
       <c r="G169" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H169" s="11" t="s">
-        <v>31</v>
+      <c r="H169" s="11">
+        <v>26690</v>
       </c>
       <c r="I169" s="11">
-        <v>26690</v>
+        <v>24134</v>
       </c>
       <c r="J169" s="11">
-        <v>24134</v>
+        <v>23072</v>
       </c>
       <c r="K169" s="11">
-        <v>23072</v>
+        <v>29105</v>
       </c>
       <c r="L169" s="11">
-        <v>29105</v>
+        <v>22738</v>
       </c>
       <c r="M169" s="11">
-        <v>22738</v>
+        <v>19832</v>
       </c>
       <c r="N169" s="11">
-        <v>19832</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24932</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>33</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>34</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>36</v>
       </c>
@@ -6004,29 +6004,29 @@
       <c r="G172" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H172" s="9" t="s">
-        <v>31</v>
+      <c r="H172" s="9">
+        <v>759607</v>
       </c>
       <c r="I172" s="9">
-        <v>759607</v>
+        <v>877283</v>
       </c>
       <c r="J172" s="9">
-        <v>877283</v>
+        <v>1068854</v>
       </c>
       <c r="K172" s="9">
-        <v>1068854</v>
+        <v>1131637</v>
       </c>
       <c r="L172" s="9">
-        <v>1131637</v>
+        <v>1163628</v>
       </c>
       <c r="M172" s="9">
-        <v>1163628</v>
+        <v>800990</v>
       </c>
       <c r="N172" s="9">
-        <v>800990</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1406782</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>38</v>
       </c>
@@ -6043,29 +6043,29 @@
       <c r="G173" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H173" s="11" t="s">
-        <v>31</v>
+      <c r="H173" s="11">
+        <v>198403</v>
       </c>
       <c r="I173" s="11">
-        <v>198403</v>
+        <v>191538</v>
       </c>
       <c r="J173" s="11">
-        <v>191538</v>
+        <v>213425</v>
       </c>
       <c r="K173" s="11">
-        <v>213425</v>
+        <v>183320</v>
       </c>
       <c r="L173" s="11">
-        <v>183320</v>
+        <v>212799</v>
       </c>
       <c r="M173" s="11">
-        <v>212799</v>
+        <v>142274</v>
       </c>
       <c r="N173" s="11">
-        <v>142274</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+        <v>176433</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6080,7 +6080,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6095,7 +6095,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6110,7 +6110,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>55</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6162,7 +6162,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>56</v>
       </c>
@@ -6193,13 +6193,13 @@
         <v>0</v>
       </c>
       <c r="M179" s="9">
-        <v>0</v>
+        <v>59492</v>
       </c>
       <c r="N179" s="9">
-        <v>59492</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-59492</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>57</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>58</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>59</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>60</v>
       </c>
@@ -6341,13 +6341,13 @@
         <v>0</v>
       </c>
       <c r="M183" s="9">
-        <v>0</v>
+        <v>305443</v>
       </c>
       <c r="N183" s="9">
-        <v>305443</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-305443</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>61</v>
       </c>
@@ -6384,81 +6384,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
-        <v>24078</v>
+        <v>27293</v>
       </c>
       <c r="F185" s="9">
-        <v>27293</v>
+        <v>32299</v>
       </c>
       <c r="G185" s="9">
-        <v>32299</v>
+        <v>29256</v>
       </c>
       <c r="H185" s="9">
-        <v>29256</v>
+        <v>45676</v>
       </c>
       <c r="I185" s="9">
-        <v>45676</v>
+        <v>56525</v>
       </c>
       <c r="J185" s="9">
-        <v>56525</v>
+        <v>58662</v>
       </c>
       <c r="K185" s="9">
-        <v>58662</v>
+        <v>63966</v>
       </c>
       <c r="L185" s="9">
-        <v>63966</v>
+        <v>76838</v>
       </c>
       <c r="M185" s="9">
-        <v>76838</v>
+        <v>70592</v>
       </c>
       <c r="N185" s="9">
-        <v>70592</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+        <v>75282</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
-        <v>54894</v>
+        <v>66199</v>
       </c>
       <c r="F186" s="11">
-        <v>66199</v>
+        <v>94368</v>
       </c>
       <c r="G186" s="11">
-        <v>94368</v>
+        <v>116555</v>
       </c>
       <c r="H186" s="11">
-        <v>116555</v>
+        <v>126068</v>
       </c>
       <c r="I186" s="11">
-        <v>126068</v>
+        <v>128556</v>
       </c>
       <c r="J186" s="11">
-        <v>128556</v>
+        <v>139935</v>
       </c>
       <c r="K186" s="11">
-        <v>139935</v>
+        <v>201357</v>
       </c>
       <c r="L186" s="11">
-        <v>201357</v>
+        <v>174428</v>
       </c>
       <c r="M186" s="11">
-        <v>174428</v>
+        <v>180948</v>
       </c>
       <c r="N186" s="11">
-        <v>180948</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+        <v>206024</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>64</v>
       </c>
@@ -6495,81 +6495,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
-        <v>74504</v>
+        <v>109356</v>
       </c>
       <c r="F188" s="11">
-        <v>109356</v>
+        <v>110778</v>
       </c>
       <c r="G188" s="11">
-        <v>110778</v>
+        <v>92360</v>
       </c>
       <c r="H188" s="11">
-        <v>92360</v>
+        <v>220479</v>
       </c>
       <c r="I188" s="11">
-        <v>220479</v>
+        <v>185381</v>
       </c>
       <c r="J188" s="11">
-        <v>185381</v>
+        <v>251348</v>
       </c>
       <c r="K188" s="11">
-        <v>251348</v>
+        <v>175105</v>
       </c>
       <c r="L188" s="11">
-        <v>175105</v>
+        <v>223268</v>
       </c>
       <c r="M188" s="11">
-        <v>223268</v>
+        <v>-177475</v>
       </c>
       <c r="N188" s="11">
-        <v>-177475</v>
-      </c>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+        <v>621180</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15">
-        <v>153476</v>
+        <v>202848</v>
       </c>
       <c r="F189" s="15">
-        <v>202848</v>
+        <v>237445</v>
       </c>
       <c r="G189" s="15">
-        <v>237445</v>
+        <v>238171</v>
       </c>
       <c r="H189" s="15">
-        <v>238171</v>
+        <v>392223</v>
       </c>
       <c r="I189" s="15">
-        <v>392223</v>
+        <v>370462</v>
       </c>
       <c r="J189" s="15">
-        <v>370462</v>
+        <v>449945</v>
       </c>
       <c r="K189" s="15">
-        <v>449945</v>
+        <v>440428</v>
       </c>
       <c r="L189" s="15">
-        <v>440428</v>
+        <v>474534</v>
       </c>
       <c r="M189" s="15">
-        <v>474534</v>
+        <v>439000</v>
       </c>
       <c r="N189" s="15">
-        <v>439000</v>
-      </c>
-    </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+        <v>537551</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -6584,7 +6584,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -6599,7 +6599,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6614,7 +6614,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B193" s="7" t="s">
         <v>66</v>
       </c>
@@ -6623,7 +6623,7 @@
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>67</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>69</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>71</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>72</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>73</v>
       </c>
@@ -6678,7 +6678,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>75</v>
       </c>
@@ -6689,7 +6689,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>77</v>
       </c>
@@ -6700,7 +6700,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>78</v>
       </c>
@@ -6711,7 +6711,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>79</v>
       </c>
